--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="15320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="15320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,11 +102,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -145,7 +140,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -367,11 +362,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="522575432"/>
-        <c:axId val="522578920"/>
+        <c:axId val="528204552"/>
+        <c:axId val="527991544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522575432"/>
+        <c:axId val="528204552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,14 +382,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522578920"/>
+        <c:crossAx val="527991544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522578920"/>
+        <c:axId val="527991544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +407,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522575432"/>
+        <c:crossAx val="528204552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,11 +631,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="522632344"/>
-        <c:axId val="522791976"/>
+        <c:axId val="454724616"/>
+        <c:axId val="454155720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522632344"/>
+        <c:axId val="454724616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,14 +669,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522791976"/>
+        <c:crossAx val="454155720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522791976"/>
+        <c:axId val="454155720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +694,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522632344"/>
+        <c:crossAx val="454724616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,10 +801,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$E$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -821,16 +816,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$3:$E$3</c:f>
+              <c:f>'Andre Rework'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>624.0</c:v>
                 </c:pt>
@@ -842,6 +840,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1432.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,10 +864,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$E$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -878,16 +879,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$4:$E$4</c:f>
+              <c:f>'Andre Rework'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>628.6</c:v>
                 </c:pt>
@@ -899,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1014.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,10 +927,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$E$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -935,16 +942,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$5:$E$5</c:f>
+              <c:f>'Andre Rework'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>588.9</c:v>
                 </c:pt>
@@ -956,17 +966,20 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="473422360"/>
-        <c:axId val="473461208"/>
+        <c:axId val="457475352"/>
+        <c:axId val="457465912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="473422360"/>
+        <c:axId val="457475352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +991,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1400"/>
                   <a:t>Number of Replicas</a:t>
                 </a:r>
               </a:p>
@@ -991,14 +1004,24 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473461208"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457465912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473461208"/>
+        <c:axId val="457465912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,10 +1034,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1300"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1300"/>
                   <a:t>Runtime (in sec)</a:t>
                 </a:r>
               </a:p>
@@ -1024,14 +1047,34 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473422360"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457475352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4984,16 +5027,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5337,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5619,10 +5662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5631,12 +5674,12 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" s="2">
         <v>4</v>
       </c>
@@ -5649,8 +5692,11 @@
       <c r="E2" s="2">
         <v>32</v>
       </c>
+      <c r="F2" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5667,8 +5713,11 @@
       <c r="E3">
         <v>1023</v>
       </c>
+      <c r="F3">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5684,8 +5733,11 @@
       <c r="E4">
         <v>804</v>
       </c>
+      <c r="F4">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5701,13 +5753,16 @@
       <c r="E5">
         <v>641</v>
       </c>
+      <c r="F5">
+        <v>650</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -5721,7 +5776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5738,7 +5793,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5755,7 +5810,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5773,10 +5828,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="15320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -143,7 +149,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -153,7 +159,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:style val="18"/>
   <c:chart>
     <c:plotArea>
@@ -362,11 +368,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="528204552"/>
-        <c:axId val="527991544"/>
+        <c:axId val="481955992"/>
+        <c:axId val="481918920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="528204552"/>
+        <c:axId val="481955992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,17 +385,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527991544"/>
+        <c:crossAx val="481918920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527991544"/>
+        <c:axId val="481918920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,17 +410,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528204552"/>
+        <c:crossAx val="481955992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -422,7 +427,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -440,7 +445,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:style val="18"/>
   <c:chart>
     <c:plotArea>
@@ -631,11 +636,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="454724616"/>
-        <c:axId val="454155720"/>
+        <c:axId val="483154776"/>
+        <c:axId val="525168392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454724616"/>
+        <c:axId val="483154776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -666,17 +670,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454155720"/>
+        <c:crossAx val="525168392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454155720"/>
+        <c:axId val="525168392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,17 +695,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454724616"/>
+        <c:crossAx val="483154776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -709,7 +712,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -726,7 +729,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:style val="1"/>
   <c:chart>
     <c:plotArea>
@@ -755,7 +758,6 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$10:$E$10</c:f>
@@ -862,6 +864,53 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$11:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.23</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.36</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$11:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.23</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.36</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'Andre Rework'!$B$2:$F$2</c:f>
@@ -925,6 +974,53 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$12:$E$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.97</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.38</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.24</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$12:$E$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.97</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.38</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.24</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'Andre Rework'!$B$2:$F$2</c:f>
@@ -975,11 +1071,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="457475352"/>
-        <c:axId val="457465912"/>
+        <c:axId val="467868344"/>
+        <c:axId val="525148472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="457475352"/>
+        <c:axId val="467868344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1087,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr lang="de-DE" sz="1400"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" sz="1400"/>
@@ -1009,21 +1105,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300"/>
+              <a:defRPr lang="de-DE" sz="1300"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457465912"/>
+        <c:crossAx val="525148472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457465912"/>
+        <c:axId val="525148472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1034,7 +1131,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300"/>
+                  <a:defRPr lang="de-DE" sz="1300"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" sz="1300"/>
@@ -1052,14 +1149,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300"/>
+              <a:defRPr lang="de-DE" sz="1300"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457475352"/>
+        <c:crossAx val="467868344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1070,9 +1168,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200"/>
+            <a:defRPr lang="de-DE" sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5027,16 +5125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5650,7 +5748,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5664,8 +5761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5828,6 +5925,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -368,11 +368,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="481955992"/>
-        <c:axId val="481918920"/>
+        <c:axId val="520505448"/>
+        <c:axId val="520508840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481955992"/>
+        <c:axId val="520505448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481918920"/>
+        <c:crossAx val="520508840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481918920"/>
+        <c:axId val="520508840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481955992"/>
+        <c:crossAx val="520505448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,11 +636,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="483154776"/>
-        <c:axId val="525168392"/>
+        <c:axId val="520202200"/>
+        <c:axId val="480229960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="483154776"/>
+        <c:axId val="520202200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,14 +673,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525168392"/>
+        <c:crossAx val="480229960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525168392"/>
+        <c:axId val="480229960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483154776"/>
+        <c:crossAx val="520202200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,6 +754,16 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -864,6 +874,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -974,6 +994,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1071,11 +1101,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="467868344"/>
-        <c:axId val="525148472"/>
+        <c:axId val="520360168"/>
+        <c:axId val="464095528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467868344"/>
+        <c:axId val="520360168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,14 +1140,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525148472"/>
+        <c:crossAx val="464095528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525148472"/>
+        <c:axId val="464095528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1154,7 +1184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467868344"/>
+        <c:crossAx val="520360168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -5125,16 +5155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5746,6 +5776,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5761,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -368,11 +368,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="520505448"/>
-        <c:axId val="520508840"/>
+        <c:axId val="522991928"/>
+        <c:axId val="521621512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520505448"/>
+        <c:axId val="522991928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520508840"/>
+        <c:crossAx val="521621512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520508840"/>
+        <c:axId val="521621512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520505448"/>
+        <c:crossAx val="522991928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,11 +636,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="520202200"/>
-        <c:axId val="480229960"/>
+        <c:axId val="500419384"/>
+        <c:axId val="521003512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520202200"/>
+        <c:axId val="500419384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,14 +673,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480229960"/>
+        <c:crossAx val="521003512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480229960"/>
+        <c:axId val="521003512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520202200"/>
+        <c:crossAx val="500419384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,8 +755,7 @@
             <c:size val="7"/>
           </c:marker>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -813,48 +812,42 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
+              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$3:$F$3</c:f>
+              <c:f>'Andre Rework'!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>624.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>685.0</c:v>
+                  <c:v>802.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>802.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1023.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1432.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,8 +868,7 @@
             </c:strRef>
           </c:tx>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -933,48 +925,42 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
+              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$4:$F$4</c:f>
+              <c:f>'Andre Rework'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>628.6</c:v>
+                  <c:v>630.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>630.0</c:v>
+                  <c:v>701.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>701.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>804.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1014.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,8 +981,7 @@
             </c:strRef>
           </c:tx>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1053,59 +1038,59 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$2:$F$2</c:f>
+              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$5:$F$5</c:f>
+              <c:f>'Andre Rework'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>588.9</c:v>
+                  <c:v>609.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>609.0</c:v>
+                  <c:v>583.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>583.33</c:v>
+                  <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>641.0</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>650.0</c:v>
+                  <c:v>2874.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="520360168"/>
-        <c:axId val="464095528"/>
+        <c:axId val="520292536"/>
+        <c:axId val="524320696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="520360168"/>
+        <c:axId val="520292536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,14 +1125,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464095528"/>
+        <c:crossAx val="524320696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464095528"/>
+        <c:axId val="524320696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1184,7 +1169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520360168"/>
+        <c:crossAx val="520292536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -5155,16 +5140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5776,7 +5761,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5790,10 +5774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5802,12 +5786,12 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" s="2">
         <v>4</v>
       </c>
@@ -5823,8 +5807,11 @@
       <c r="F2" s="2">
         <v>64</v>
       </c>
+      <c r="G2" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5841,11 +5828,8 @@
       <c r="E3">
         <v>1023</v>
       </c>
-      <c r="F3">
-        <v>1432</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5861,11 +5845,8 @@
       <c r="E4">
         <v>804</v>
       </c>
-      <c r="F4">
-        <v>1014</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5884,13 +5865,16 @@
       <c r="F5">
         <v>650</v>
       </c>
+      <c r="G5">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -5904,7 +5888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +5905,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +5922,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5959,6 +5943,7 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,6 +97,38 @@
     <t>tc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2BJs 2Machines, 8 replicas, 32 exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4BJs, 4Machines - 16 replicas/64 exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronous </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 replicas/16 exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,10 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,11 +401,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="522991928"/>
-        <c:axId val="521621512"/>
+        <c:axId val="494933464"/>
+        <c:axId val="488421288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522991928"/>
+        <c:axId val="494933464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +421,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521621512"/>
+        <c:crossAx val="488421288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521621512"/>
+        <c:axId val="488421288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522991928"/>
+        <c:crossAx val="494933464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,11 +669,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="500419384"/>
-        <c:axId val="521003512"/>
+        <c:axId val="513179976"/>
+        <c:axId val="469591800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="500419384"/>
+        <c:axId val="513179976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,14 +706,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521003512"/>
+        <c:crossAx val="469591800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521003512"/>
+        <c:axId val="469591800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500419384"/>
+        <c:crossAx val="513179976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,15 +787,6 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -812,42 +836,60 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$3:$G$3</c:f>
+              <c:f>'Andre Rework'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>685.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>802.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1350.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,15 +909,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -925,42 +958,60 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$4:$G$4</c:f>
+              <c:f>'Andre Rework'!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>628.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>630.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>701.83</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1097.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1393.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,15 +1031,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1038,59 +1080,71 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$2:$G$2</c:f>
+              <c:f>'Andre Rework'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$5:$G$5</c:f>
+              <c:f>'Andre Rework'!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>588.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>609.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>583.33</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>641.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>650.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2874.0</c:v>
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>717.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>792.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="520292536"/>
-        <c:axId val="524320696"/>
+        <c:axId val="518489272"/>
+        <c:axId val="449802600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="520292536"/>
+        <c:axId val="518489272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,20 +1179,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524320696"/>
+        <c:crossAx val="449802600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524320696"/>
+        <c:axId val="449802600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1169,7 +1222,407 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520292536"/>
+        <c:crossAx val="518489272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.81</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.81</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4(1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8(2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16(4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$87:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1179.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.57</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.57</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4(1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8(2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16(4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$88:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>628.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>685.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$93:$D$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.97</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.17</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$93:$D$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.97</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.17</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4(1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8(2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16(4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$89:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>588.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>607.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="488560520"/>
+        <c:axId val="513342232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488560520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas(Number of Machines)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513342232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513342232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488560520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -1203,16 +1656,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5140,16 +5593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5163,6 +5616,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5491,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5760,7 +6243,61 @@
         <v>6.14</v>
       </c>
     </row>
+    <row r="181" spans="3:6">
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6">
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182">
+        <v>624</v>
+      </c>
+      <c r="E182">
+        <v>805</v>
+      </c>
+      <c r="F182">
+        <v>1179.8</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6">
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>628.6</v>
+      </c>
+      <c r="E183">
+        <v>632</v>
+      </c>
+      <c r="F183">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6">
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>588.9</v>
+      </c>
+      <c r="E184">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="F184">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5774,10 +6311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5786,12 +6323,12 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" s="2">
         <v>4</v>
       </c>
@@ -5810,8 +6347,11 @@
       <c r="G2" s="2">
         <v>128</v>
       </c>
+      <c r="H2" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5828,8 +6368,17 @@
       <c r="E3">
         <v>1023</v>
       </c>
+      <c r="F3">
+        <v>1350</v>
+      </c>
+      <c r="G3">
+        <v>2100</v>
+      </c>
+      <c r="H3">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5845,8 +6394,17 @@
       <c r="E4">
         <v>804</v>
       </c>
+      <c r="F4">
+        <v>1097</v>
+      </c>
+      <c r="G4">
+        <v>1393</v>
+      </c>
+      <c r="H4">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5863,18 +6421,21 @@
         <v>641</v>
       </c>
       <c r="F5">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="G5">
-        <v>2874</v>
+        <v>717</v>
+      </c>
+      <c r="H5">
+        <v>792</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +6449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5905,7 +6466,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5922,7 +6483,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5937,13 +6498,109 @@
       </c>
       <c r="E12">
         <v>4.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>624</v>
+      </c>
+      <c r="C87">
+        <v>805</v>
+      </c>
+      <c r="D87">
+        <v>1179.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>628.6</v>
+      </c>
+      <c r="C88">
+        <v>632</v>
+      </c>
+      <c r="D88">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>588.9</v>
+      </c>
+      <c r="C89">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="D89">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91">
+        <v>8.81</v>
+      </c>
+      <c r="C91">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D91">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92">
+        <v>11.1</v>
+      </c>
+      <c r="C92">
+        <v>5.57</v>
+      </c>
+      <c r="D92">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93">
+        <v>5.97</v>
+      </c>
+      <c r="C93">
+        <v>9.17</v>
+      </c>
+      <c r="D93">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,34 @@
   </si>
   <si>
     <t>16(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128(512)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256(1024)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -73,12 +101,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -203,34 +225,33 @@
             </c:minus>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Andre Rework'!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4(16)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>64(256)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.0</c:v>
+                  <c:v>128(512)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>256(1024)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -325,34 +346,33 @@
             </c:minus>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Andre Rework'!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4(16)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>64(256)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.0</c:v>
+                  <c:v>128(512)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>256(1024)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -447,34 +467,33 @@
             </c:minus>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Andre Rework'!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4(16)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>64(256)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.0</c:v>
+                  <c:v>128(512)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>256(1024)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -508,11 +527,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="503970552"/>
-        <c:axId val="469591800"/>
+        <c:axId val="460957560"/>
+        <c:axId val="460965256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503970552"/>
+        <c:axId val="460957560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +547,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -547,14 +566,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469591800"/>
+        <c:crossAx val="460965256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469591800"/>
+        <c:axId val="460965256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503970552"/>
+        <c:crossAx val="460957560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -906,11 +925,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="495065752"/>
-        <c:axId val="503713672"/>
+        <c:axId val="460906568"/>
+        <c:axId val="460900040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="495065752"/>
+        <c:axId val="460906568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,14 +964,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503713672"/>
+        <c:crossAx val="460900040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503713672"/>
+        <c:axId val="460900040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +1006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495065752"/>
+        <c:crossAx val="460906568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1419,26 +1438,26 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1">
-        <v>128</v>
-      </c>
-      <c r="H2" s="1">
-        <v>256</v>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,6 +90,34 @@
   </si>
   <si>
     <t>256(1024)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -101,6 +125,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -527,11 +557,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="460957560"/>
-        <c:axId val="460965256"/>
+        <c:axId val="742619240"/>
+        <c:axId val="701871208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460957560"/>
+        <c:axId val="742619240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,14 +596,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460965256"/>
+        <c:crossAx val="701871208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460965256"/>
+        <c:axId val="701871208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460957560"/>
+        <c:crossAx val="742619240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,36 +701,54 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>8.81</c:v>
+                    <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.05</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.5</c:v>
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>18.34</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>8.81</c:v>
+                    <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.05</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.5</c:v>
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>18.34</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -708,35 +756,65 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4(1)</c:v>
+                  <c:v>8(1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8(2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16(1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16(2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16(4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32(1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32(2)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32(4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$87:$D$87</c:f>
+              <c:f>'Andre Rework'!$B$87:$I$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>624.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>805.0</c:v>
+                  <c:v>651.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1179.8</c:v>
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>718.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1081.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,36 +840,54 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:f>'Andre Rework'!$B$92:$G$92</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>11.1</c:v>
+                    <c:v>3.23</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>7.11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.36</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>5.57</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.11</c:v>
+                  <c:pt idx="5">
+                    <c:v>13.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:f>'Andre Rework'!$B$92:$G$92</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>11.1</c:v>
+                    <c:v>3.23</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>7.11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.36</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>5.57</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.11</c:v>
+                  <c:pt idx="5">
+                    <c:v>13.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -799,35 +895,65 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4(1)</c:v>
+                  <c:v>8(1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8(2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16(1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16(2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16(4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32(1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32(2)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32(4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$88:$D$88</c:f>
+              <c:f>'Andre Rework'!$B$88:$I$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>628.6</c:v>
+                  <c:v>630.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>632.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>701.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>652.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,36 +979,54 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$93:$D$93</c:f>
+                <c:f>'Andre Rework'!$B$93:$G$93</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.97</c:v>
+                    <c:v>6.14</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.38</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>9.17</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.66</c:v>
+                  <c:pt idx="5">
+                    <c:v>4.24</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$93:$D$93</c:f>
+                <c:f>'Andre Rework'!$B$93:$G$93</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.97</c:v>
+                    <c:v>6.14</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.38</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>9.17</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.66</c:v>
+                  <c:pt idx="5">
+                    <c:v>4.24</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -890,46 +1034,76 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4(1)</c:v>
+                  <c:v>8(1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8(2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16(1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16(2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16(4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32(1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32(2)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32(4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$89:$D$89</c:f>
+              <c:f>'Andre Rework'!$B$89:$I$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>588.9</c:v>
+                  <c:v>609.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>607.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>583.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>626.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="460906568"/>
-        <c:axId val="460900040"/>
+        <c:axId val="700458136"/>
+        <c:axId val="726950920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460906568"/>
+        <c:axId val="700458136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,14 +1138,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460900040"/>
+        <c:crossAx val="726950920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460900040"/>
+        <c:axId val="726950920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460906568"/>
+        <c:crossAx val="700458136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,15 +1243,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1420,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1439,25 +1613,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1609,60 +1783,121 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:9">
       <c r="B86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" t="s">
-        <v>11</v>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="C87">
-        <v>805</v>
+        <v>651.29999999999995</v>
       </c>
       <c r="D87">
-        <v>1179.8</v>
+        <f>907-105</f>
+        <v>802</v>
+      </c>
+      <c r="E87">
+        <v>754</v>
+      </c>
+      <c r="F87">
+        <v>718.6</v>
+      </c>
+      <c r="G87">
+        <v>1023</v>
+      </c>
+      <c r="H87">
+        <v>1081</v>
+      </c>
+      <c r="I87">
+        <v>879</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>1</v>
       </c>
       <c r="B88">
-        <v>628.6</v>
+        <v>630</v>
       </c>
       <c r="C88">
         <v>632</v>
       </c>
       <c r="D88">
+        <v>701.83</v>
+      </c>
+      <c r="E88">
+        <v>652.25</v>
+      </c>
+      <c r="F88">
         <v>685</v>
       </c>
+      <c r="G88">
+        <v>804</v>
+      </c>
+      <c r="H88">
+        <v>724</v>
+      </c>
+      <c r="I88">
+        <v>635</v>
+      </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89">
-        <v>588.9</v>
+        <v>609</v>
       </c>
       <c r="C89">
         <v>607.79999999999995</v>
       </c>
       <c r="D89">
+        <v>583.33000000000004</v>
+      </c>
+      <c r="E89">
+        <v>635</v>
+      </c>
+      <c r="F89">
         <v>641</v>
       </c>
+      <c r="G89">
+        <v>641</v>
+      </c>
+      <c r="H89">
+        <v>626</v>
+      </c>
+      <c r="I89">
+        <v>611</v>
+      </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
         <v>7</v>
       </c>
@@ -1670,45 +1905,106 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
         <v>7</v>
       </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:9">
       <c r="B91">
-        <v>8.81</v>
+        <v>11.2</v>
       </c>
       <c r="C91">
-        <v>10.050000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="D91">
-        <v>14.5</v>
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>3.8</v>
+      </c>
+      <c r="G91">
+        <v>18.34</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:9">
       <c r="B92">
-        <v>11.1</v>
+        <v>3.23</v>
       </c>
       <c r="C92">
+        <v>7.11</v>
+      </c>
+      <c r="D92">
+        <v>16.36</v>
+      </c>
+      <c r="E92">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F92">
         <v>5.57</v>
       </c>
-      <c r="D92">
-        <v>7.11</v>
+      <c r="G92">
+        <v>13.4</v>
+      </c>
+      <c r="H92">
+        <v>27</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:9">
       <c r="B93">
-        <v>5.97</v>
+        <v>6.14</v>
       </c>
       <c r="C93">
+        <v>1.66</v>
+      </c>
+      <c r="D93">
+        <v>3.38</v>
+      </c>
+      <c r="E93">
+        <v>2.8</v>
+      </c>
+      <c r="F93">
         <v>9.17</v>
       </c>
-      <c r="D93">
-        <v>1.66</v>
+      <c r="G93">
+        <v>4.24</v>
+      </c>
+      <c r="H93">
+        <v>4.2</v>
+      </c>
+      <c r="I93">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +120,46 @@
     <t>32(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Synchronous </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1BJ/1M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2BJ/2M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4BJ/4M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sixteen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thirtytwo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2BJ/2M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +267,7 @@
                     <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>18.34</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -248,7 +288,7 @@
                     <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>18.34</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -557,11 +597,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="742619240"/>
-        <c:axId val="701871208"/>
+        <c:axId val="702790568"/>
+        <c:axId val="704399912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="742619240"/>
+        <c:axId val="702790568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,14 +636,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701871208"/>
+        <c:crossAx val="704399912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="701871208"/>
+        <c:axId val="704399912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742619240"/>
+        <c:crossAx val="702790568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,7 +761,7 @@
                     <c:v>3.8</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>18.34</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -748,7 +788,7 @@
                     <c:v>3.8</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>18.34</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -811,7 +851,7 @@
                   <c:v>1023.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1081.0</c:v>
+                  <c:v>965.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>879.0</c:v>
@@ -1099,11 +1139,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="700458136"/>
-        <c:axId val="726950920"/>
+        <c:axId val="704213000"/>
+        <c:axId val="711118744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="700458136"/>
+        <c:axId val="704213000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,14 +1178,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726950920"/>
+        <c:crossAx val="711118744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726950920"/>
+        <c:axId val="711118744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1220,1563 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700458136"/>
+        <c:crossAx val="704213000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Synchronous</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1BJ/1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$140:$D$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2BJ/2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$141:$D$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>651.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4BJ/4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$142:$D$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>718.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="704407016"/>
+        <c:axId val="708923128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="704407016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708923128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708923128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704407016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Centralized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1BJ/1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$151:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>701.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2BJ/2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$152:$D$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>652.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4BJ/4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$153:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>635.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="707820088"/>
+        <c:axId val="711097112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="707820088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711097112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711097112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707820088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Decentralized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1BJ/1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>583.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2BJ/2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$167:$D$167</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>607.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>626.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$168</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4BJ/4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$168:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="755563720"/>
+        <c:axId val="755320904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="755563720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755320904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755320904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755563720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2BJ/2M</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$198</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$198:$D$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>651.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$199</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$199:$D$199</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>652.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$200</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$200:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>607.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>626.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="755885432"/>
+        <c:axId val="755905704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="755885432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755905704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755905704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755885432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="de-DE" sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4BJ/4M</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$221</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$221:$C$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>718.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>879.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$222</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$222:$C$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$223</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sixteen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thirtytwo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$223:$C$223</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>611.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="754982984"/>
+        <c:axId val="756402632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="754982984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Number of Replicas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756402632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="756402632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="de-DE" sz="1300"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="de-DE" sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754982984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1243,16 +2839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1266,6 +2862,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1594,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1746,7 +3492,7 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>18.34</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1833,7 +3579,7 @@
         <v>1023</v>
       </c>
       <c r="H87">
-        <v>1081</v>
+        <v>965</v>
       </c>
       <c r="I87">
         <v>879</v>
@@ -1940,7 +3686,7 @@
         <v>3.8</v>
       </c>
       <c r="G91">
-        <v>18.34</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>10</v>
@@ -1998,6 +3744,475 @@
         <v>4.2</v>
       </c>
       <c r="I93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>685</v>
+      </c>
+      <c r="C140">
+        <f>907-105</f>
+        <v>802</v>
+      </c>
+      <c r="D140">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141">
+        <v>651.29999999999995</v>
+      </c>
+      <c r="C141">
+        <v>754</v>
+      </c>
+      <c r="D141">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142">
+        <v>718.6</v>
+      </c>
+      <c r="D142">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144">
+        <v>11.2</v>
+      </c>
+      <c r="C144">
+        <v>17</v>
+      </c>
+      <c r="D144">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145">
+        <v>3.13</v>
+      </c>
+      <c r="C145">
+        <v>24</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="C146">
+        <v>3.8</v>
+      </c>
+      <c r="D146">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151">
+        <v>630</v>
+      </c>
+      <c r="C151">
+        <v>701.83</v>
+      </c>
+      <c r="D151">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152">
+        <v>632</v>
+      </c>
+      <c r="C152">
+        <v>652.25</v>
+      </c>
+      <c r="D152">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <v>685</v>
+      </c>
+      <c r="D153">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155">
+        <v>3.23</v>
+      </c>
+      <c r="C155">
+        <v>16.36</v>
+      </c>
+      <c r="D155">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156">
+        <v>7.11</v>
+      </c>
+      <c r="C156">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="C157">
+        <v>5.57</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166">
+        <v>609</v>
+      </c>
+      <c r="C166">
+        <v>583.29999999999995</v>
+      </c>
+      <c r="D166">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="C167">
+        <v>635</v>
+      </c>
+      <c r="D167">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168">
+        <v>641</v>
+      </c>
+      <c r="D168">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170">
+        <v>6.14</v>
+      </c>
+      <c r="C170">
+        <v>3.38</v>
+      </c>
+      <c r="D170">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171">
+        <v>1.66</v>
+      </c>
+      <c r="C171">
+        <v>2.8</v>
+      </c>
+      <c r="D171">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="C172">
+        <v>9.17</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="B197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>651.29999999999995</v>
+      </c>
+      <c r="C198">
+        <v>754</v>
+      </c>
+      <c r="D198">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>632</v>
+      </c>
+      <c r="C199">
+        <v>652.25</v>
+      </c>
+      <c r="D199">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="C200">
+        <v>635</v>
+      </c>
+      <c r="D200">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202">
+        <v>3.13</v>
+      </c>
+      <c r="C202">
+        <v>24</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="B203">
+        <v>7.11</v>
+      </c>
+      <c r="C203">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D203">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="B204">
+        <v>1.66</v>
+      </c>
+      <c r="C204">
+        <v>2.8</v>
+      </c>
+      <c r="D204">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>718.6</v>
+      </c>
+      <c r="C221">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>685</v>
+      </c>
+      <c r="C222">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>641</v>
+      </c>
+      <c r="C223">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225">
+        <v>3.8</v>
+      </c>
+      <c r="C225">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226">
+        <v>5.57</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227">
+        <v>9.17</v>
+      </c>
+      <c r="C227">
         <v>8</v>
       </c>
     </row>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4(16)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,43 +85,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Synchronous </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1BJ/1M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2BJ/2M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -160,17 +116,83 @@
     <t>2BJ/2M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2M,2BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M,4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M,2BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M,4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M,4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(est)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M/4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M/4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M/4BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -253,10 +275,10 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$10:$E$10</c:f>
+                <c:f>'Andre Rework'!$B$10:$H$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>8.81</c:v>
                   </c:pt>
@@ -268,16 +290,25 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>34.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>52.0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$10:$E$10</c:f>
+                <c:f>'Andre Rework'!$B$10:$H$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>8.81</c:v>
                   </c:pt>
@@ -289,6 +320,15 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>34.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>52.0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -342,10 +382,10 @@
                   <c:v>1023.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1350.0</c:v>
+                  <c:v>1389.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2100.0</c:v>
+                  <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3200.0</c:v>
@@ -374,10 +414,10 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$11:$E$11</c:f>
+                <c:f>'Andre Rework'!$B$11:$H$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>11.1</c:v>
                   </c:pt>
@@ -389,16 +429,25 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>13.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>19.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$11:$E$11</c:f>
+                <c:f>'Andre Rework'!$B$11:$H$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>11.1</c:v>
                   </c:pt>
@@ -410,6 +459,15 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>13.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>19.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -495,10 +553,10 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$12:$E$12</c:f>
+                <c:f>'Andre Rework'!$B$12:$H$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>5.97</c:v>
                   </c:pt>
@@ -506,20 +564,29 @@
                     <c:v>6.14</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.38</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.24</c:v>
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.72</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>25.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$12:$E$12</c:f>
+                <c:f>'Andre Rework'!$B$12:$H$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>5.97</c:v>
                   </c:pt>
@@ -527,10 +594,19 @@
                     <c:v>6.14</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.38</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.24</c:v>
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.72</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>25.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -578,13 +654,13 @@
                   <c:v>609.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>583.33</c:v>
+                  <c:v>622.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>660.0</c:v>
+                  <c:v>659.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>717.0</c:v>
@@ -597,11 +673,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="702790568"/>
-        <c:axId val="704399912"/>
+        <c:axId val="471342024"/>
+        <c:axId val="471489800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="702790568"/>
+        <c:axId val="471342024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,14 +712,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704399912"/>
+        <c:crossAx val="471489800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="704399912"/>
+        <c:axId val="471489800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702790568"/>
+        <c:crossAx val="471342024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,6 +789,24 @@
   <c:lang val="en-US"/>
   <c:style val="1"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Synchronous</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -722,11 +816,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$87</c:f>
+              <c:f>'Andre Rework'!$A$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Synchronous </c:v>
+                  <c:v>1M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,26 +835,17 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$90:$D$90</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
@@ -768,26 +853,17 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$90:$D$90</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>34.0</c:v>
                   </c:pt>
                 </c:numCache>
@@ -796,65 +872,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8(1)</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8(2)</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16(1)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16(2)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16(4)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32(1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32(2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32(4)</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$87:$I$87</c:f>
+              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>685.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>608.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>651.3</c:v>
+                  <c:v>648.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>802.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>754.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>718.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1023.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>965.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>879.0</c:v>
+                  <c:v>715.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,11 +911,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$88</c:f>
+              <c:f>'Andre Rework'!$A$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asynchronous - Centralized</c:v>
+                  <c:v>2M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -880,54 +926,36 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$G$92</c:f>
+                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.23</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.11</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>16.36</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.57</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>13.4</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$G$92</c:f>
+                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.23</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.11</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>16.36</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.57</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>13.4</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -935,65 +963,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8(1)</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8(2)</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16(1)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16(2)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16(4)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32(1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32(2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32(4)</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$88:$I$88</c:f>
+              <c:f>'Andre Rework'!$B$87:$D$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>630.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>625.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>632.0</c:v>
+                  <c:v>702.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>701.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>652.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>685.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>804.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>724.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>635.0</c:v>
+                  <c:v>762.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,11 +1002,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$89</c:f>
+              <c:f>'Andre Rework'!$A$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asynchronous - Decentralized</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,54 +1017,36 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$93:$G$93</c:f>
+                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.14</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.66</c:v>
+                    <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.38</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.17</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.24</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$93:$G$93</c:f>
+                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.14</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.66</c:v>
+                    <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.38</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.17</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.24</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1074,76 +1054,46 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$86:$I$86</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8(1)</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8(2)</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16(1)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16(2)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16(4)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32(1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32(2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32(4)</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$89:$I$89</c:f>
+              <c:f>'Andre Rework'!$B$88:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>609.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>633.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607.8</c:v>
+                  <c:v>718.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>583.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>635.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>641.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>641.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>626.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>611.0</c:v>
+                  <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="704213000"/>
-        <c:axId val="711118744"/>
+        <c:axId val="471558216"/>
+        <c:axId val="471564248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="704213000"/>
+        <c:axId val="471558216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,14 +1109,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas(Number of Machines)</a:t>
+                  <a:t>Number of Replicas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1178,16 +1128,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711118744"/>
+        <c:crossAx val="471564248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711118744"/>
+        <c:axId val="471564248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1220,7 +1171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704213000"/>
+        <c:crossAx val="471558216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1266,7 +1217,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Synchronous</a:t>
+              <a:t>Centralized</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1282,11 +1233,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$140</c:f>
+              <c:f>'Andre Rework'!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1BJ/1M</c:v>
+                  <c:v>1M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1301,54 +1252,36 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$101:$D$101</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>5.6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>16.9</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.0</c:v>
+                    <c:v>14.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$101:$D$101</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>5.6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>16.9</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.0</c:v>
+                    <c:v>14.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1356,35 +1289,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$140:$D$140</c:f>
+              <c:f>'Andre Rework'!$B$97:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>685.0</c:v>
+                  <c:v>575.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>802.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1023.0</c:v>
+                  <c:v>633.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,46 +1328,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$141</c:f>
+              <c:f>'Andre Rework'!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2BJ/2M</c:v>
+                  <c:v>2M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$102:$D$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$102:$D$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$141:$D$141</c:f>
+              <c:f>'Andre Rework'!$B$98:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>651.3</c:v>
+                  <c:v>567.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>754.0</c:v>
+                  <c:v>591.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>965.0</c:v>
+                  <c:v>637.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,54 +1419,98 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$142</c:f>
+              <c:f>'Andre Rework'!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4BJ/4M</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$103:$D$103</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$103:$D$103</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$142:$D$142</c:f>
+              <c:f>'Andre Rework'!$B$99:$D$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>718.6</c:v>
+                  <c:v>603.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="704407016"/>
-        <c:axId val="708923128"/>
+        <c:axId val="471609384"/>
+        <c:axId val="471615416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="704407016"/>
+        <c:axId val="471609384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,16 +1545,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708923128"/>
+        <c:crossAx val="471615416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="708923128"/>
+        <c:axId val="471615416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1569,7 +1588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704407016"/>
+        <c:crossAx val="471609384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,7 +1634,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Centralized</a:t>
+              <a:t>Decentralized</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1631,11 +1650,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$151</c:f>
+              <c:f>'Andre Rework'!$A$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1BJ/1M</c:v>
+                  <c:v>1M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1650,54 +1669,36 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$116:$D$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>6.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$G$91</c:f>
+                <c:f>'Andre Rework'!$B$116:$D$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>6.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1705,35 +1706,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$151:$D$151</c:f>
+              <c:f>'Andre Rework'!$B$112:$D$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>630.0</c:v>
+                  <c:v>607.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>701.83</c:v>
+                  <c:v>618.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>804.0</c:v>
+                  <c:v>633.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,46 +1745,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$152</c:f>
+              <c:f>'Andre Rework'!$A$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2BJ/2M</c:v>
+                  <c:v>2M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$117:$D$117</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$117:$D$117</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$152:$D$152</c:f>
+              <c:f>'Andre Rework'!$B$113:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>632.0</c:v>
+                  <c:v>606.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>652.25</c:v>
+                  <c:v>633.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>724.0</c:v>
+                  <c:v>623.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,54 +1836,98 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$153</c:f>
+              <c:f>'Andre Rework'!$A$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4BJ/4M</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$118:$D$118</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$118:$D$118</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$153:$D$153</c:f>
+              <c:f>'Andre Rework'!$B$114:$D$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>568.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>685.0</c:v>
+                  <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="707820088"/>
-        <c:axId val="711097112"/>
+        <c:axId val="471663176"/>
+        <c:axId val="471669208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="707820088"/>
+        <c:axId val="471663176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,14 +1962,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711097112"/>
+        <c:crossAx val="471669208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711097112"/>
+        <c:axId val="471669208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707820088"/>
+        <c:crossAx val="471663176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,7 +2050,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Decentralized</a:t>
+              <a:t>2BJ/2M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1980,11 +2066,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$166</c:f>
+              <c:f>'Andre Rework'!$A$144</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1BJ/1M</c:v>
+                  <c:v>Synchronous </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1993,37 +2079,78 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$148:$D$148</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$148:$D$148</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
+              <c:f>'Andre Rework'!$B$144:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>609.0</c:v>
+                  <c:v>651.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>583.3</c:v>
+                  <c:v>754.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>641.0</c:v>
+                  <c:v>865.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,46 +2161,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$167</c:f>
+              <c:f>'Andre Rework'!$A$145</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2BJ/2M</c:v>
+                  <c:v>Asynchronous - Centralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$149:$D$149</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$149:$D$149</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$167:$D$167</c:f>
+              <c:f>'Andre Rework'!$B$145:$D$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>607.8</c:v>
+                  <c:v>632.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>635.0</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>626.0</c:v>
+                  <c:v>724.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,54 +2252,98 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$168</c:f>
+              <c:f>'Andre Rework'!$A$146</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4BJ/4M</c:v>
+                  <c:v>Asynchronous - Decentralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$150:$D$150</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$150:$D$150</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
+              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Eight</c:v>
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
+                  <c:v>16(64)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$168:$D$168</c:f>
+              <c:f>'Andre Rework'!$B$146:$D$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>607.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>611.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="755563720"/>
-        <c:axId val="755320904"/>
+        <c:axId val="471715304"/>
+        <c:axId val="471721336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="755563720"/>
+        <c:axId val="471715304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,16 +2378,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755320904"/>
+        <c:crossAx val="471721336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="755320904"/>
+        <c:axId val="471721336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -2208,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755563720"/>
+        <c:crossAx val="471715304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2254,299 +2467,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2BJ/2M</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$198</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Eight</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$198:$D$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>651.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>754.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>965.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$199</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Centralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Eight</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$199:$D$199</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>632.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>652.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>724.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$200</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Decentralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$139:$D$139</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Eight</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Thirtytwo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$200:$D$200</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>607.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>635.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>626.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="755885432"/>
-        <c:axId val="755905704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="755885432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755905704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="755905704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
-                  <a:t>Runtime (in sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755885432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="1"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>4BJ/4M</a:t>
             </a:r>
           </a:p>
@@ -2563,7 +2483,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$221</c:f>
+              <c:f>'Andre Rework'!$A$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2576,30 +2496,77 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$171:$D$171</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$171:$D$171</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Sixteen</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>16(64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$221:$C$221</c:f>
+              <c:f>'Andre Rework'!$B$167:$D$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>718.6</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>633.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2611,7 +2578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$222</c:f>
+              <c:f>'Andre Rework'!$A$168</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2620,30 +2587,77 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$172:$D$172</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$172:$D$172</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Sixteen</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>16(64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$222:$C$222</c:f>
+              <c:f>'Andre Rework'!$B$168:$D$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>685.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2655,7 +2669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$223</c:f>
+              <c:f>'Andre Rework'!$A$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2664,30 +2678,77 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$173:$D$173</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$173:$D$173</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$220:$C$220</c:f>
+              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Sixteen</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thirtytwo</c:v>
+                  <c:v>16(64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32(128)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$223:$C$223</c:f>
+              <c:f>'Andre Rework'!$B$169:$D$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>641.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2695,11 +2756,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="754982984"/>
-        <c:axId val="756402632"/>
+        <c:axId val="471768008"/>
+        <c:axId val="471774040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="754982984"/>
+        <c:axId val="471768008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,16 +2795,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756402632"/>
+        <c:crossAx val="471774040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="756402632"/>
+        <c:axId val="471774040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -2776,7 +2838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="754982984"/>
+        <c:crossAx val="471768008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2809,15 +2871,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2839,20 +2901,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 2"/>
+        <xdr:cNvPr id="6" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2869,20 +2931,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 2"/>
+        <xdr:cNvPr id="7" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2899,20 +2961,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 2"/>
+        <xdr:cNvPr id="8" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2930,19 +2992,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 2"/>
+        <xdr:cNvPr id="9" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2959,45 +3021,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3011,7 +3043,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3340,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3359,25 +3391,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3398,10 +3430,11 @@
         <v>1023</v>
       </c>
       <c r="F3">
-        <v>1350</v>
+        <v>1389</v>
       </c>
       <c r="G3">
-        <v>2100</v>
+        <f>2845-896</f>
+        <v>1949</v>
       </c>
       <c r="H3">
         <v>3200</v>
@@ -3444,13 +3477,13 @@
         <v>609</v>
       </c>
       <c r="D5">
-        <v>583.33000000000004</v>
+        <v>622</v>
       </c>
       <c r="E5">
         <v>641</v>
       </c>
       <c r="F5">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G5">
         <v>717</v>
@@ -3477,6 +3510,15 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -3494,6 +3536,15 @@
       <c r="E10">
         <v>34</v>
       </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -3511,6 +3562,15 @@
       <c r="E11">
         <v>13.4</v>
       </c>
+      <c r="F11">
+        <v>19.2</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -3523,703 +3583,1070 @@
         <v>6.14</v>
       </c>
       <c r="D12">
-        <v>3.38</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="B86" s="2" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="F12">
+        <v>0.72</v>
+      </c>
+      <c r="G12">
+        <v>8.5</v>
+      </c>
+      <c r="H12">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <f>685-0.3*4*8-1.3*4*8</f>
+        <v>633.79999999999995</v>
+      </c>
+      <c r="C23">
+        <f>802-0.3*8*8-1.3*8*8</f>
+        <v>699.59999999999991</v>
+      </c>
+      <c r="D23">
+        <f>1023-0.3*16*8-1.3*16*8</f>
+        <v>818.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>587.5</v>
+      </c>
+      <c r="C24">
+        <v>613</v>
+      </c>
+      <c r="D24">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f>609-0.3*4</f>
+        <v>607.79999999999995</v>
+      </c>
+      <c r="C25">
+        <f>622-0.3*8</f>
+        <v>619.6</v>
+      </c>
+      <c r="D25">
+        <f>641-0.3*16</f>
+        <v>636.20000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
+        <v>11.2</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28">
+        <v>0.35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <f>685-0.3*6*8-1.3*6*8</f>
+        <v>608.20000000000005</v>
+      </c>
+      <c r="C33">
+        <f>802-0.3*12*8-1.3*12*8</f>
+        <v>648.40000000000009</v>
+      </c>
+      <c r="D33">
+        <f>1023-0.3*24*8-1.3*24*8</f>
+        <v>715.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>575</v>
+      </c>
+      <c r="C34">
+        <v>560</v>
+      </c>
+      <c r="D34">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <f>609-0.3*6</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="C35">
+        <f>622-0.3*12</f>
+        <v>618.4</v>
+      </c>
+      <c r="D35">
+        <f>641-0.3*24</f>
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37">
+        <v>11.2</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38">
+        <v>5.6</v>
+      </c>
+      <c r="C38">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D38">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>651</v>
+      </c>
+      <c r="C43">
+        <v>754</v>
+      </c>
+      <c r="D43">
+        <v>865</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>632</v>
+      </c>
+      <c r="C44">
+        <v>652</v>
+      </c>
+      <c r="D44">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>607</v>
+      </c>
+      <c r="C45">
+        <v>635</v>
+      </c>
+      <c r="D45">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48">
+        <v>5.5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <f>651-0.3*2*8-1.3*2*8</f>
+        <v>625.40000000000009</v>
+      </c>
+      <c r="C54">
+        <f>754-0.3*4*8-1.3*4*8</f>
+        <v>702.8</v>
+      </c>
+      <c r="D54">
+        <f>865-0.3*8*8-1.3*8*8</f>
+        <v>762.59999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>567</v>
+      </c>
+      <c r="C55">
+        <v>591</v>
+      </c>
+      <c r="D55">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <f>607-0.3*2</f>
+        <v>606.4</v>
+      </c>
+      <c r="C56">
+        <f>635-0.3*4</f>
+        <v>633.79999999999995</v>
+      </c>
+      <c r="D56">
+        <f>626-0.3*8</f>
+        <v>623.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59">
+        <v>1.7</v>
+      </c>
+      <c r="C59">
+        <v>3.4</v>
+      </c>
+      <c r="D59">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>633</v>
+      </c>
+      <c r="C66">
+        <v>718</v>
+      </c>
+      <c r="D66">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>600</v>
+      </c>
+      <c r="C67">
+        <v>660</v>
+      </c>
+      <c r="D67">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>568</v>
+      </c>
+      <c r="C68">
+        <v>641</v>
+      </c>
+      <c r="D68">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>3.8</v>
+      </c>
+      <c r="D70">
         <v>18</v>
       </c>
-      <c r="C86" s="2" t="s">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71">
+        <v>8.4</v>
+      </c>
+      <c r="C71">
+        <v>7.1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D72">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>608</v>
+      </c>
+      <c r="C86">
+        <v>648</v>
+      </c>
+      <c r="D86">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87">
+        <v>625</v>
+      </c>
+      <c r="C87">
+        <v>702</v>
+      </c>
+      <c r="D87">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88">
+        <v>633</v>
+      </c>
+      <c r="C88">
+        <v>718.6</v>
+      </c>
+      <c r="D88">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90">
+        <v>11.2</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91">
+        <v>3.13</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D92">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97">
+        <v>575</v>
+      </c>
+      <c r="C97">
+        <v>560</v>
+      </c>
+      <c r="D97">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98">
+        <v>567</v>
+      </c>
+      <c r="C98">
+        <v>591</v>
+      </c>
+      <c r="D98">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99">
+        <v>600</v>
+      </c>
+      <c r="C99">
+        <v>603</v>
+      </c>
+      <c r="D99">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101">
+        <v>5.6</v>
+      </c>
+      <c r="C101">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D101">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102">
+        <v>1.7</v>
+      </c>
+      <c r="C102">
+        <v>3.4</v>
+      </c>
+      <c r="D102">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103">
+        <v>8.4</v>
+      </c>
+      <c r="C103">
+        <v>7.1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112">
+        <f>609-0.3*6</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="C112">
+        <f>622-0.3*12</f>
+        <v>618.4</v>
+      </c>
+      <c r="D112">
+        <f>641-0.3*24</f>
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <f>607-0.3*2</f>
+        <v>606.4</v>
+      </c>
+      <c r="C113">
+        <f>635-0.3*4</f>
+        <v>633.79999999999995</v>
+      </c>
+      <c r="D113">
+        <v>623.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114">
+        <v>568</v>
+      </c>
+      <c r="C114">
+        <v>641</v>
+      </c>
+      <c r="D114">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>23</v>
+      </c>
+      <c r="D116">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="B117">
         <v>9</v>
       </c>
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87">
-        <v>685</v>
-      </c>
-      <c r="C87">
-        <v>651.29999999999995</v>
-      </c>
-      <c r="D87">
-        <f>907-105</f>
-        <v>802</v>
-      </c>
-      <c r="E87">
-        <v>754</v>
-      </c>
-      <c r="F87">
-        <v>718.6</v>
-      </c>
-      <c r="G87">
-        <v>1023</v>
-      </c>
-      <c r="H87">
-        <v>965</v>
-      </c>
-      <c r="I87">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>630</v>
-      </c>
-      <c r="C88">
-        <v>632</v>
-      </c>
-      <c r="D88">
-        <v>701.83</v>
-      </c>
-      <c r="E88">
-        <v>652.25</v>
-      </c>
-      <c r="F88">
-        <v>685</v>
-      </c>
-      <c r="G88">
-        <v>804</v>
-      </c>
-      <c r="H88">
-        <v>724</v>
-      </c>
-      <c r="I88">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89">
-        <v>609</v>
-      </c>
-      <c r="C89">
-        <v>607.79999999999995</v>
-      </c>
-      <c r="D89">
-        <v>583.33000000000004</v>
-      </c>
-      <c r="E89">
-        <v>635</v>
-      </c>
-      <c r="F89">
-        <v>641</v>
-      </c>
-      <c r="G89">
-        <v>641</v>
-      </c>
-      <c r="H89">
-        <v>626</v>
-      </c>
-      <c r="I89">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="B91">
-        <v>11.2</v>
-      </c>
-      <c r="C91">
-        <v>3.13</v>
-      </c>
-      <c r="D91">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>24</v>
-      </c>
-      <c r="F91">
-        <v>3.8</v>
-      </c>
-      <c r="G91">
-        <v>34</v>
-      </c>
-      <c r="H91">
-        <v>10</v>
-      </c>
-      <c r="I91">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="B92">
-        <v>3.23</v>
-      </c>
-      <c r="C92">
-        <v>7.11</v>
-      </c>
-      <c r="D92">
-        <v>16.36</v>
-      </c>
-      <c r="E92">
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F92">
-        <v>5.57</v>
-      </c>
-      <c r="G92">
-        <v>13.4</v>
-      </c>
-      <c r="H92">
-        <v>27</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="B93">
-        <v>6.14</v>
-      </c>
-      <c r="C93">
-        <v>1.66</v>
-      </c>
-      <c r="D93">
-        <v>3.38</v>
-      </c>
-      <c r="E93">
-        <v>2.8</v>
-      </c>
-      <c r="F93">
-        <v>9.17</v>
-      </c>
-      <c r="G93">
-        <v>4.24</v>
-      </c>
-      <c r="H93">
-        <v>4.2</v>
-      </c>
-      <c r="I93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C139" t="s">
-        <v>30</v>
-      </c>
-      <c r="D139" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140">
-        <v>685</v>
-      </c>
-      <c r="C140">
-        <f>907-105</f>
-        <v>802</v>
-      </c>
-      <c r="D140">
-        <v>1023</v>
+      <c r="D118">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <v>651</v>
+      </c>
+      <c r="C144">
+        <v>754</v>
+      </c>
+      <c r="D144">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>632</v>
+      </c>
+      <c r="C145">
+        <v>652</v>
+      </c>
+      <c r="D145">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>607</v>
+      </c>
+      <c r="C146">
+        <v>635</v>
+      </c>
+      <c r="D146">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>24</v>
+      </c>
+      <c r="D148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149">
+        <v>5.5</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
         <v>27</v>
       </c>
-      <c r="B141">
-        <v>651.29999999999995</v>
-      </c>
-      <c r="C141">
-        <v>754</v>
-      </c>
-      <c r="D141">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>28</v>
-      </c>
-      <c r="C142">
-        <v>718.6</v>
-      </c>
-      <c r="D142">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" t="s">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="B144">
-        <v>11.2</v>
-      </c>
-      <c r="C144">
-        <v>17</v>
-      </c>
-      <c r="D144">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="B145">
-        <v>3.13</v>
-      </c>
-      <c r="C145">
-        <v>24</v>
-      </c>
-      <c r="D145">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="C146">
-        <v>3.8</v>
-      </c>
-      <c r="D146">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C150" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151">
-        <v>630</v>
-      </c>
-      <c r="C151">
-        <v>701.83</v>
-      </c>
-      <c r="D151">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152">
-        <v>632</v>
-      </c>
-      <c r="C152">
-        <v>652.25</v>
-      </c>
-      <c r="D152">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153">
-        <v>685</v>
-      </c>
-      <c r="D153">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="B155">
-        <v>3.23</v>
-      </c>
-      <c r="C155">
-        <v>16.36</v>
-      </c>
-      <c r="D155">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156">
-        <v>7.11</v>
-      </c>
-      <c r="C156">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D156">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="C157">
-        <v>5.57</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
+      <c r="D150">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="B165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C165" t="s">
-        <v>30</v>
-      </c>
-      <c r="D165" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>26</v>
-      </c>
-      <c r="B166">
-        <v>609</v>
-      </c>
-      <c r="C166">
-        <v>583.29999999999995</v>
-      </c>
-      <c r="D166">
-        <v>641</v>
+      <c r="B166" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B167">
-        <v>607.79999999999995</v>
+        <v>633</v>
       </c>
       <c r="C167">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="D167">
-        <v>626</v>
+        <v>879</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>600</v>
+      </c>
+      <c r="C168">
+        <v>660</v>
+      </c>
+      <c r="D168">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>568</v>
+      </c>
+      <c r="C169">
+        <v>641</v>
+      </c>
+      <c r="D169">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
         <v>28</v>
       </c>
-      <c r="C168">
-        <v>641</v>
-      </c>
-      <c r="D168">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="B170">
-        <v>6.14</v>
-      </c>
-      <c r="C170">
-        <v>3.38</v>
-      </c>
-      <c r="D170">
-        <v>4.24</v>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="B171">
-        <v>1.66</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D171">
-        <v>4.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:4">
+      <c r="B172">
+        <v>8.4</v>
+      </c>
       <c r="C172">
-        <v>9.17</v>
+        <v>7.1</v>
       </c>
       <c r="D172">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="B197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198">
-        <v>651.29999999999995</v>
-      </c>
-      <c r="C198">
-        <v>754</v>
-      </c>
-      <c r="D198">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199">
-        <v>632</v>
-      </c>
-      <c r="C199">
-        <v>652.25</v>
-      </c>
-      <c r="D199">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
         <v>2</v>
       </c>
-      <c r="B200">
-        <v>607.79999999999995</v>
-      </c>
-      <c r="C200">
-        <v>635</v>
-      </c>
-      <c r="D200">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202">
-        <v>3.13</v>
-      </c>
-      <c r="C202">
-        <v>24</v>
-      </c>
-      <c r="D202">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203">
-        <v>7.11</v>
-      </c>
-      <c r="C203">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="B173">
+        <v>27</v>
+      </c>
+      <c r="C173">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D203">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="B204">
-        <v>1.66</v>
-      </c>
-      <c r="C204">
-        <v>2.8</v>
-      </c>
-      <c r="D204">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="B220" t="s">
-        <v>30</v>
-      </c>
-      <c r="C220" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221">
-        <v>718.6</v>
-      </c>
-      <c r="C221">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>685</v>
-      </c>
-      <c r="C222">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223">
-        <v>641</v>
-      </c>
-      <c r="C223">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225">
-        <v>3.8</v>
-      </c>
-      <c r="C225">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226">
-        <v>5.57</v>
-      </c>
-      <c r="C226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227">
-        <v>9.17</v>
-      </c>
-      <c r="C227">
-        <v>8</v>
+      <c r="D173">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -673,11 +673,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471342024"/>
-        <c:axId val="471489800"/>
+        <c:axId val="450936328"/>
+        <c:axId val="595962216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471342024"/>
+        <c:axId val="450936328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +692,7 @@
                   <a:defRPr lang="de-DE" sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:rPr sz="1400"/>
                   <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
@@ -712,16 +712,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471489800"/>
+        <c:crossAx val="595962216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471489800"/>
+        <c:axId val="595962216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -754,7 +755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471342024"/>
+        <c:crossAx val="450936328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,11 +1090,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471558216"/>
-        <c:axId val="471564248"/>
+        <c:axId val="451252520"/>
+        <c:axId val="452246072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471558216"/>
+        <c:axId val="451252520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1110,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1128,14 +1129,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471564248"/>
+        <c:crossAx val="452246072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471564248"/>
+        <c:axId val="452246072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1171,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471558216"/>
+        <c:crossAx val="451252520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,11 +1507,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471609384"/>
-        <c:axId val="471615416"/>
+        <c:axId val="468573848"/>
+        <c:axId val="452455608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471609384"/>
+        <c:axId val="468573848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1527,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1545,14 +1546,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471615416"/>
+        <c:crossAx val="452455608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471615416"/>
+        <c:axId val="452455608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1588,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471609384"/>
+        <c:crossAx val="468573848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,11 +1924,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471663176"/>
-        <c:axId val="471669208"/>
+        <c:axId val="468581640"/>
+        <c:axId val="450999496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471663176"/>
+        <c:axId val="468581640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1944,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1962,14 +1963,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471669208"/>
+        <c:crossAx val="450999496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471669208"/>
+        <c:axId val="450999496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471663176"/>
+        <c:crossAx val="468581640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2339,11 +2340,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471715304"/>
-        <c:axId val="471721336"/>
+        <c:axId val="451273176"/>
+        <c:axId val="463481912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471715304"/>
+        <c:axId val="451273176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2360,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2378,14 +2379,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471721336"/>
+        <c:crossAx val="463481912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471721336"/>
+        <c:axId val="463481912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2421,7 +2422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471715304"/>
+        <c:crossAx val="451273176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,7 +2656,7 @@
                   <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660.0</c:v>
+                  <c:v>603.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -2756,11 +2757,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471768008"/>
-        <c:axId val="471774040"/>
+        <c:axId val="452086792"/>
+        <c:axId val="452092808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471768008"/>
+        <c:axId val="452086792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2777,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas</a:t>
+                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2795,14 +2796,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471774040"/>
+        <c:crossAx val="452092808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471774040"/>
+        <c:axId val="452092808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2838,7 +2839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471768008"/>
+        <c:crossAx val="452086792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4580,7 +4581,7 @@
         <v>600</v>
       </c>
       <c r="C168">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="D168">
         <v>635</v>
@@ -4645,6 +4646,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -673,11 +673,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="450936328"/>
-        <c:axId val="595962216"/>
+        <c:axId val="471615944"/>
+        <c:axId val="468248776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="450936328"/>
+        <c:axId val="471615944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,14 +712,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595962216"/>
+        <c:crossAx val="468248776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595962216"/>
+        <c:axId val="468248776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -755,7 +755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450936328"/>
+        <c:crossAx val="471615944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1090,11 +1090,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="451252520"/>
-        <c:axId val="452246072"/>
+        <c:axId val="466168120"/>
+        <c:axId val="451128152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451252520"/>
+        <c:axId val="466168120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,14 +1129,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452246072"/>
+        <c:crossAx val="451128152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452246072"/>
+        <c:axId val="451128152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1172,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451252520"/>
+        <c:crossAx val="466168120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,11 +1507,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="468573848"/>
-        <c:axId val="452455608"/>
+        <c:axId val="467879896"/>
+        <c:axId val="452306568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468573848"/>
+        <c:axId val="467879896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,14 +1546,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452455608"/>
+        <c:crossAx val="452306568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452455608"/>
+        <c:axId val="452306568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1589,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468573848"/>
+        <c:crossAx val="467879896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,11 +1924,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="468581640"/>
-        <c:axId val="450999496"/>
+        <c:axId val="465946968"/>
+        <c:axId val="596115176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468581640"/>
+        <c:axId val="465946968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,14 +1963,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450999496"/>
+        <c:crossAx val="596115176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450999496"/>
+        <c:axId val="596115176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468581640"/>
+        <c:crossAx val="465946968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2340,11 +2340,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="451273176"/>
-        <c:axId val="463481912"/>
+        <c:axId val="452230344"/>
+        <c:axId val="466441496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451273176"/>
+        <c:axId val="452230344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,14 +2379,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463481912"/>
+        <c:crossAx val="466441496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463481912"/>
+        <c:axId val="466441496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2422,7 +2422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451273176"/>
+        <c:crossAx val="452230344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2656,7 +2656,7 @@
                   <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603.0</c:v>
+                  <c:v>660.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -2757,11 +2757,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="452086792"/>
-        <c:axId val="452092808"/>
+        <c:axId val="464205768"/>
+        <c:axId val="494222520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452086792"/>
+        <c:axId val="464205768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,14 +2796,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452092808"/>
+        <c:crossAx val="494222520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452092808"/>
+        <c:axId val="494222520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2839,7 +2839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452086792"/>
+        <c:crossAx val="464205768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="L167" sqref="L167"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4581,7 +4581,7 @@
         <v>600</v>
       </c>
       <c r="C168">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="D168">
         <v>635</v>
@@ -4646,7 +4646,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -188,11 +188,21 @@
     <t>32(128)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -673,11 +683,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471615944"/>
-        <c:axId val="468248776"/>
+        <c:axId val="464280200"/>
+        <c:axId val="451221704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471615944"/>
+        <c:axId val="464280200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,14 +722,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468248776"/>
+        <c:crossAx val="451221704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468248776"/>
+        <c:axId val="451221704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -755,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471615944"/>
+        <c:crossAx val="464280200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1090,11 +1100,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="466168120"/>
-        <c:axId val="451128152"/>
+        <c:axId val="452637448"/>
+        <c:axId val="450898440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466168120"/>
+        <c:axId val="452637448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,14 +1139,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451128152"/>
+        <c:crossAx val="450898440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451128152"/>
+        <c:axId val="450898440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1172,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466168120"/>
+        <c:crossAx val="452637448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,7 +1453,7 @@
                     <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
@@ -1461,7 +1471,7 @@
                     <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
@@ -1497,7 +1507,7 @@
                   <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603.0</c:v>
+                  <c:v>606.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -1507,11 +1517,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="467879896"/>
-        <c:axId val="452306568"/>
+        <c:axId val="595929112"/>
+        <c:axId val="463505816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467879896"/>
+        <c:axId val="595929112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,14 +1556,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452306568"/>
+        <c:crossAx val="463505816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452306568"/>
+        <c:axId val="463505816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1589,7 +1599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467879896"/>
+        <c:crossAx val="595929112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,7 +1870,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -1878,7 +1888,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -1914,7 +1924,7 @@
                   <c:v>568.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.0</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>611.0</c:v>
@@ -1924,11 +1934,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="465946968"/>
-        <c:axId val="596115176"/>
+        <c:axId val="493513032"/>
+        <c:axId val="463944120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="465946968"/>
+        <c:axId val="493513032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,14 +1973,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596115176"/>
+        <c:crossAx val="463944120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596115176"/>
+        <c:axId val="463944120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465946968"/>
+        <c:crossAx val="493513032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,10 +2283,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.0</c:v>
+                    <c:v>6.99</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0</c:v>
+                    <c:v>10.79</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.0</c:v>
@@ -2291,10 +2301,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.0</c:v>
+                    <c:v>6.99</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0</c:v>
+                    <c:v>10.79</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.0</c:v>
@@ -2327,10 +2337,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>607.0</c:v>
+                  <c:v>601.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>635.0</c:v>
+                  <c:v>621.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>626.0</c:v>
@@ -2340,11 +2350,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="452230344"/>
-        <c:axId val="466441496"/>
+        <c:axId val="586916952"/>
+        <c:axId val="468655736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452230344"/>
+        <c:axId val="586916952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,14 +2389,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466441496"/>
+        <c:crossAx val="468655736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466441496"/>
+        <c:axId val="468655736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2422,7 +2432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452230344"/>
+        <c:crossAx val="586916952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,7 +2612,7 @@
                     <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
@@ -2620,7 +2630,7 @@
                     <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
@@ -2656,7 +2666,7 @@
                   <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660.0</c:v>
+                  <c:v>606.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -2693,7 +2703,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -2711,7 +2721,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -2747,7 +2757,7 @@
                   <c:v>568.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.0</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>611.0</c:v>
@@ -2757,11 +2767,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="464205768"/>
-        <c:axId val="494222520"/>
+        <c:axId val="471021592"/>
+        <c:axId val="464325048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464205768"/>
+        <c:axId val="471021592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,14 +2806,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494222520"/>
+        <c:crossAx val="464325048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494222520"/>
+        <c:axId val="464325048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2839,7 +2849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464205768"/>
+        <c:crossAx val="471021592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3599,12 +3609,12 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3642,7 @@
         <v>818.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -3646,7 +3656,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -3663,7 +3673,7 @@
         <v>636.20000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="B27">
         <v>11.2</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="B28">
         <v>0.35</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="B29">
         <v>6</v>
       </c>
@@ -3707,12 +3717,17 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="30" spans="1:5">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>600</v>
       </c>
       <c r="C99">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D99">
         <v>635</v>
@@ -4328,7 +4343,7 @@
         <v>8.4</v>
       </c>
       <c r="C103">
-        <v>7.1</v>
+        <v>4.57</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4391,7 +4406,7 @@
         <v>568</v>
       </c>
       <c r="C114">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="D114">
         <v>611</v>
@@ -4435,7 +4450,7 @@
         <v>27</v>
       </c>
       <c r="C118">
-        <v>4.5999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="D118">
         <v>8.1999999999999993</v>
@@ -4490,10 +4505,10 @@
         <v>2</v>
       </c>
       <c r="B146">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C146">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="D146">
         <v>626</v>
@@ -4534,10 +4549,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="B150">
-        <v>9</v>
+        <v>6.99</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>10.79</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -4581,7 +4596,7 @@
         <v>600</v>
       </c>
       <c r="C168">
-        <v>660</v>
+        <v>606</v>
       </c>
       <c r="D168">
         <v>635</v>
@@ -4595,7 +4610,7 @@
         <v>568</v>
       </c>
       <c r="C169">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="D169">
         <v>611</v>
@@ -4628,7 +4643,7 @@
         <v>8.4</v>
       </c>
       <c r="C172">
-        <v>7.1</v>
+        <v>4.57</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -4639,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="C173">
-        <v>4.5999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="D173">
         <v>8.1999999999999993</v>
@@ -4648,6 +4663,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -197,12 +197,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -279,6 +273,21 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:bevel/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -418,6 +427,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -557,6 +576,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -683,11 +712,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="464280200"/>
-        <c:axId val="451221704"/>
+        <c:axId val="69864968"/>
+        <c:axId val="69858568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464280200"/>
+        <c:axId val="69864968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,14 +751,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451221704"/>
+        <c:crossAx val="69858568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451221704"/>
+        <c:axId val="69858568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -765,7 +794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464280200"/>
+        <c:crossAx val="69864968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1129,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="452637448"/>
-        <c:axId val="450898440"/>
+        <c:axId val="514181240"/>
+        <c:axId val="514187256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452637448"/>
+        <c:axId val="514181240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,14 +1168,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450898440"/>
+        <c:crossAx val="514187256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450898440"/>
+        <c:axId val="514187256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1182,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452637448"/>
+        <c:crossAx val="514181240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,11 +1546,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="595929112"/>
-        <c:axId val="463505816"/>
+        <c:axId val="538779848"/>
+        <c:axId val="538793208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="595929112"/>
+        <c:axId val="538779848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,14 +1585,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463505816"/>
+        <c:crossAx val="538793208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463505816"/>
+        <c:axId val="538793208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1599,7 +1628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595929112"/>
+        <c:crossAx val="538779848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1934,11 +1963,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="493513032"/>
-        <c:axId val="463944120"/>
+        <c:axId val="548822472"/>
+        <c:axId val="548828488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="493513032"/>
+        <c:axId val="548822472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,14 +2002,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463944120"/>
+        <c:crossAx val="548828488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463944120"/>
+        <c:axId val="548828488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493513032"/>
+        <c:crossAx val="548822472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2350,11 +2379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="586916952"/>
-        <c:axId val="468655736"/>
+        <c:axId val="514407976"/>
+        <c:axId val="514413992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586916952"/>
+        <c:axId val="514407976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,14 +2418,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468655736"/>
+        <c:crossAx val="514413992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468655736"/>
+        <c:axId val="514413992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2432,7 +2461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586916952"/>
+        <c:crossAx val="514407976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2767,11 +2796,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="471021592"/>
-        <c:axId val="464325048"/>
+        <c:axId val="514597432"/>
+        <c:axId val="514603448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471021592"/>
+        <c:axId val="514597432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,14 +2835,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464325048"/>
+        <c:crossAx val="514603448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464325048"/>
+        <c:axId val="514603448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2849,7 +2878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471021592"/>
+        <c:crossAx val="514597432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4663,7 +4692,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>4BJ/4M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sixteen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thirtytwo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,6 +185,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -280,11 +274,10 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -407,7 +400,7 @@
                   <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200.0</c:v>
+                  <c:v>2700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +426,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -582,7 +574,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -712,11 +703,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69864968"/>
-        <c:axId val="69858568"/>
+        <c:axId val="479066808"/>
+        <c:axId val="448312856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69864968"/>
+        <c:axId val="479066808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +728,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -751,14 +741,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69858568"/>
+        <c:crossAx val="448312856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69858568"/>
+        <c:axId val="448312856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -780,7 +770,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -794,14 +783,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69864968"/>
+        <c:crossAx val="479066808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1129,11 +1117,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="514181240"/>
-        <c:axId val="514187256"/>
+        <c:axId val="474000568"/>
+        <c:axId val="478665256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="514181240"/>
+        <c:axId val="474000568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,14 +1156,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514187256"/>
+        <c:crossAx val="478665256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514187256"/>
+        <c:axId val="478665256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1211,7 +1199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514181240"/>
+        <c:crossAx val="474000568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,11 +1534,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="538779848"/>
-        <c:axId val="538793208"/>
+        <c:axId val="446245192"/>
+        <c:axId val="478846968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="538779848"/>
+        <c:axId val="446245192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,14 +1573,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538793208"/>
+        <c:crossAx val="478846968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538793208"/>
+        <c:axId val="478846968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1628,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538779848"/>
+        <c:crossAx val="446245192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,11 +1951,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="548822472"/>
-        <c:axId val="548828488"/>
+        <c:axId val="490010008"/>
+        <c:axId val="448083208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548822472"/>
+        <c:axId val="490010008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,14 +1990,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548828488"/>
+        <c:crossAx val="448083208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548828488"/>
+        <c:axId val="448083208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548822472"/>
+        <c:crossAx val="490010008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2095,7 +2083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2379,11 +2366,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="514407976"/>
-        <c:axId val="514413992"/>
+        <c:axId val="489098936"/>
+        <c:axId val="479154280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="514407976"/>
+        <c:axId val="489098936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2418,14 +2404,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514413992"/>
+        <c:crossAx val="479154280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514413992"/>
+        <c:axId val="479154280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2447,7 +2433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2461,14 +2446,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514407976"/>
+        <c:crossAx val="489098936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2512,7 +2496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2796,11 +2779,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="514597432"/>
-        <c:axId val="514603448"/>
+        <c:axId val="451242488"/>
+        <c:axId val="454179528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="514597432"/>
+        <c:axId val="451242488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2835,14 +2817,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514603448"/>
+        <c:crossAx val="454179528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514603448"/>
+        <c:axId val="454179528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2864,7 +2846,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2878,14 +2859,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514597432"/>
+        <c:crossAx val="451242488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2896,6 +2876,590 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8(32)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$B$90:$B$92,'Andre Rework'!$B$101:$B$103,'Andre Rework'!$B$116:$B$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$B$90:$B$92,'Andre Rework'!$B$101:$B$103,'Andre Rework'!$B$116:$B$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Andre Rework'!$B$86:$B$88,'Andre Rework'!$B$97:$B$99,'Andre Rework'!$B$112:$B$114)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>607.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>568.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16(64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$C$90:$C$92,'Andre Rework'!$C$101:$C$103,'Andre Rework'!$C$116:$C$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.57</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>23.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$C$90:$C$92,'Andre Rework'!$C$101:$C$103,'Andre Rework'!$C$116:$C$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.57</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>23.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Andre Rework'!$C$86:$C$88,'Andre Rework'!$C$97:$C$99,'Andre Rework'!$C$112:$C$114)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>633.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>594.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32(128)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$D$90:$D$92,'Andre Rework'!$D$101:$D$103,'Andre Rework'!$D$116:$D$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Andre Rework'!$D$90:$D$92,'Andre Rework'!$D$101:$D$103,'Andre Rework'!$D$116:$D$118)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>34.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Andre Rework'!$D$86:$D$88,'Andre Rework'!$D$97:$D$99,'Andre Rework'!$D$112:$D$114)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>715.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>762.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>633.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>623.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>611.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="446057816"/>
+        <c:axId val="451741368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="446057816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Synchronous		Centralized		Decentralized</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.182588775667747"/>
+              <c:y val="0.928759894459103"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="451741368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451741368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="446057816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3084,6 +3648,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3414,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="J92" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3477,7 +4071,7 @@
         <v>1949</v>
       </c>
       <c r="H3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3551,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3640,7 +4234,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3704,13 +4298,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3748,12 +4342,12 @@
     </row>
     <row r="30" spans="1:5">
       <c r="E30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3817,13 +4411,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3861,7 +4455,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3889,7 +4483,7 @@
         <v>865</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3922,13 +4516,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3966,7 +4560,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4030,13 +4624,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4074,7 +4668,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4132,13 +4726,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4181,18 +4775,18 @@
     </row>
     <row r="85" spans="1:4">
       <c r="B85" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>608</v>
@@ -4206,7 +4800,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B87">
         <v>625</v>
@@ -4220,7 +4814,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B88">
         <v>633</v>
@@ -4278,23 +4872,23 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="B96" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B97">
         <v>575</v>
@@ -4308,7 +4902,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B98">
         <v>567</v>
@@ -4322,7 +4916,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B99">
         <v>600</v>
@@ -4380,23 +4974,23 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="B111" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B112">
         <f>609-0.3*6</f>
@@ -4413,7 +5007,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B113">
         <f>607-0.3*2</f>
@@ -4429,7 +5023,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B114">
         <v>568</v>
@@ -4487,18 +5081,18 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4545,13 +5139,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="B147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4594,13 +5188,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="B166" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4647,13 +5241,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="B170" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:4">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,21 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Synchronous</t>
+  </si>
+  <si>
+    <t>32(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +293,18 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:errBars>
@@ -426,7 +452,18 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:errBars>
@@ -574,7 +611,18 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:errBars>
@@ -703,11 +751,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="479066808"/>
-        <c:axId val="448312856"/>
+        <c:axId val="548865304"/>
+        <c:axId val="489861272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="479066808"/>
+        <c:axId val="548865304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,15 +767,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
+                  <a:defRPr lang="de-DE" sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1400"/>
+                  <a:rPr sz="2000"/>
                   <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -736,24 +785,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
+              <a:defRPr lang="de-DE" sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448312856"/>
+        <c:crossAx val="489861272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448312856"/>
+        <c:axId val="489861272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -761,15 +811,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
+                  <a:defRPr lang="de-DE" sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
+                  <a:rPr lang="de-DE" sz="2000"/>
                   <a:t>Runtime (in sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -778,24 +829,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
+              <a:defRPr lang="de-DE" sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479066808"/>
+        <c:crossAx val="548865304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
+            <a:defRPr lang="de-DE" sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1117,11 +1169,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="474000568"/>
-        <c:axId val="478665256"/>
+        <c:axId val="527549384"/>
+        <c:axId val="490278744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="474000568"/>
+        <c:axId val="527549384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,14 +1208,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478665256"/>
+        <c:crossAx val="490278744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478665256"/>
+        <c:axId val="490278744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1199,7 +1251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474000568"/>
+        <c:crossAx val="527549384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1586,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="446245192"/>
-        <c:axId val="478846968"/>
+        <c:axId val="549495064"/>
+        <c:axId val="448153832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="446245192"/>
+        <c:axId val="549495064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1625,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478846968"/>
+        <c:crossAx val="448153832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478846968"/>
+        <c:axId val="448153832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1616,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446245192"/>
+        <c:crossAx val="549495064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1951,11 +2003,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="490010008"/>
-        <c:axId val="448083208"/>
+        <c:axId val="451302360"/>
+        <c:axId val="446703704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490010008"/>
+        <c:axId val="451302360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,14 +2042,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448083208"/>
+        <c:crossAx val="446703704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448083208"/>
+        <c:axId val="446703704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490010008"/>
+        <c:crossAx val="451302360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2083,6 +2135,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2366,11 +2419,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="489098936"/>
-        <c:axId val="479154280"/>
+        <c:axId val="484792520"/>
+        <c:axId val="485143528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="489098936"/>
+        <c:axId val="484792520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,6 +2444,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2404,14 +2458,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479154280"/>
+        <c:crossAx val="485143528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479154280"/>
+        <c:axId val="485143528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2433,6 +2487,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2446,13 +2501,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489098936"/>
+        <c:crossAx val="484792520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2496,6 +2552,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2779,11 +2836,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="451242488"/>
-        <c:axId val="454179528"/>
+        <c:axId val="528229736"/>
+        <c:axId val="496534232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451242488"/>
+        <c:axId val="528229736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,6 +2861,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2817,14 +2875,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454179528"/>
+        <c:crossAx val="496534232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454179528"/>
+        <c:axId val="496534232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2846,6 +2904,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2859,13 +2918,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451242488"/>
+        <c:crossAx val="528229736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2891,98 +2951,83 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>32 replicas/128 exchanges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85</c:f>
+              <c:f>'Andre Rework'!$B$195</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>Synchronous</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
+            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Andre Rework'!$B$90:$B$92,'Andre Rework'!$B$101:$B$103,'Andre Rework'!$B$116:$B$118)</c:f>
+                <c:f>'Andre Rework'!$B$200:$B$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5.6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.7</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8.4</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6.0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>9.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>27.0</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Andre Rework'!$B$90:$B$92,'Andre Rework'!$B$101:$B$103,'Andre Rework'!$B$116:$B$118)</c:f>
+                <c:f>'Andre Rework'!$B$200:$B$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.13</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5.6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.7</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8.4</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6.0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>9.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>27.0</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2990,9 +3035,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1M/4BJ</c:v>
                 </c:pt>
@@ -3000,24 +3045,6 @@
                   <c:v>2M/4BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
@@ -3025,36 +3052,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Andre Rework'!$B$86:$B$88,'Andre Rework'!$B$97:$B$99,'Andre Rework'!$B$112:$B$114)</c:f>
+              <c:f>'Andre Rework'!$B$196:$B$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>608.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>715.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>625.0</c:v>
+                  <c:v>762.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>575.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>567.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>607.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>606.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>568.0</c:v>
+                  <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,86 +3074,54 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$85</c:f>
+              <c:f>'Andre Rework'!$C$195</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16(64)</c:v>
+                  <c:v>Asynchronous - Centralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
+            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Andre Rework'!$C$90:$C$92,'Andre Rework'!$C$101:$C$103,'Andre Rework'!$C$116:$C$118)</c:f>
+                <c:f>'Andre Rework'!$C$200:$C$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>17.0</c:v>
+                    <c:v>14.8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>16.9</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.57</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>23.0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>11.1</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Andre Rework'!$C$90:$C$92,'Andre Rework'!$C$101:$C$103,'Andre Rework'!$C$116:$C$118)</c:f>
+                <c:f>'Andre Rework'!$C$200:$C$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>17.0</c:v>
+                    <c:v>14.8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>16.9</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.57</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>23.0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>11.1</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3152,9 +3129,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1M/4BJ</c:v>
                 </c:pt>
@@ -3162,24 +3139,6 @@
                   <c:v>2M/4BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
@@ -3187,36 +3146,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Andre Rework'!$C$86:$C$88,'Andre Rework'!$C$97:$C$99,'Andre Rework'!$C$112:$C$114)</c:f>
+              <c:f>'Andre Rework'!$C$196:$C$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>648.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>633.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>702.0</c:v>
+                  <c:v>637.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>718.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>591.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>606.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>618.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>633.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>594.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,49 +3168,35 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$85</c:f>
+              <c:f>'Andre Rework'!$D$195</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32(128)</c:v>
+                  <c:v>Asynchronous - Decentralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
+            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Andre Rework'!$D$90:$D$92,'Andre Rework'!$D$101:$D$103,'Andre Rework'!$D$116:$D$118)</c:f>
+                <c:f>'Andre Rework'!$D$200:$D$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>34.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.0</c:v>
+                    <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>14.8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
@@ -3277,35 +3204,17 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Andre Rework'!$D$90:$D$92,'Andre Rework'!$D$101:$D$103,'Andre Rework'!$D$116:$D$118)</c:f>
+                <c:f>'Andre Rework'!$D$200:$D$202</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>34.0</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.0</c:v>
+                    <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>14.8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
@@ -3314,9 +3223,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Andre Rework'!$A$86:$A$88,'Andre Rework'!$A$97:$A$99,'Andre Rework'!$A$112:$A$114)</c:f>
+              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1M/4BJ</c:v>
                 </c:pt>
@@ -3324,24 +3233,6 @@
                   <c:v>2M/4BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
@@ -3349,50 +3240,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Andre Rework'!$D$86:$D$88,'Andre Rework'!$D$97:$D$99,'Andre Rework'!$D$112:$D$114)</c:f>
+              <c:f>'Andre Rework'!$D$196:$D$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>715.0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>633.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>762.0</c:v>
+                  <c:v>623.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>633.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>637.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>635.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>633.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>623.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="446057816"/>
-        <c:axId val="451741368"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="481937240"/>
+        <c:axId val="496543320"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="446057816"/>
+        <c:axId val="481937240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496543320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496543320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3400,35 +3299,390 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Synchronous		Centralized		Decentralized</a:t>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.182588775667747"/>
-              <c:y val="0.928759894459103"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451741368"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481937240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>16 replicas/64 exchanges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$210:$B$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$210:$B$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$206:$B$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$210:$C$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.57</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$210:$C$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.57</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$206:$C$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>606.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$210:$D$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>23.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$210:$D$212</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>23.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$206:$D$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>618.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="484507608"/>
+        <c:axId val="447682392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484507608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="447682392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451741368"/>
+        <c:axId val="447682392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3443,7 +3697,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3452,7 +3706,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446057816"/>
+        <c:crossAx val="484507608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3460,6 +3714,420 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>8 replicas/32 exchanges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$214</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$219:$B$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$219:$B$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$215:$B$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$214</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$219:$C$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$219:$C$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$215:$C$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$214</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$219:$D$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$219:$D$221</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$215:$D$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>607.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="527671864"/>
+        <c:axId val="528114216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="527671864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528114216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528114216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527671864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3481,9 +4149,9 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3566,15 +4234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3655,20 +4323,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="27" name="Chart 26"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3678,6 +4346,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4006,10 +4734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J92" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5283,6 +6011,311 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196">
+        <v>715</v>
+      </c>
+      <c r="C196">
+        <v>633</v>
+      </c>
+      <c r="D196">
+        <f>641-0.3*24</f>
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197">
+        <v>762</v>
+      </c>
+      <c r="C197">
+        <v>637</v>
+      </c>
+      <c r="D197">
+        <v>623.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198">
+        <v>879</v>
+      </c>
+      <c r="C198">
+        <v>635</v>
+      </c>
+      <c r="D198">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200">
+        <v>34</v>
+      </c>
+      <c r="C200">
+        <v>14.8</v>
+      </c>
+      <c r="D200">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="B201">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>2.4</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206">
+        <v>648</v>
+      </c>
+      <c r="C206">
+        <v>560</v>
+      </c>
+      <c r="D206">
+        <f>622-0.3*12</f>
+        <v>618.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207">
+        <v>702</v>
+      </c>
+      <c r="C207">
+        <v>591</v>
+      </c>
+      <c r="D207">
+        <f>635-0.3*4</f>
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208">
+        <v>718.6</v>
+      </c>
+      <c r="C208">
+        <v>606</v>
+      </c>
+      <c r="D208">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="B210">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D210">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>3.4</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="B212">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C212">
+        <v>4.57</v>
+      </c>
+      <c r="D212">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>43</v>
+      </c>
+      <c r="B214" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215">
+        <v>608</v>
+      </c>
+      <c r="C215">
+        <v>575</v>
+      </c>
+      <c r="D215">
+        <f>609-0.3*6</f>
+        <v>607.20000000000005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216">
+        <v>625</v>
+      </c>
+      <c r="C216">
+        <v>567</v>
+      </c>
+      <c r="D216">
+        <f>607-0.3*2</f>
+        <v>606.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217">
+        <v>633</v>
+      </c>
+      <c r="C217">
+        <v>600</v>
+      </c>
+      <c r="D217">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219">
+        <v>11.2</v>
+      </c>
+      <c r="C219">
+        <v>5.6</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220">
+        <v>3.13</v>
+      </c>
+      <c r="C220">
+        <v>1.7</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221">
+        <v>27</v>
+      </c>
+      <c r="C221">
+        <v>8.4</v>
+      </c>
+      <c r="D221">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -199,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -250,7 +244,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -258,12 +252,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -311,6 +315,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$10:$H$10</c:f>
@@ -426,11 +431,12 @@
                   <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2700.0</c:v>
+                  <c:v>3906.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -470,6 +476,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$11:$H$11</c:f>
@@ -585,11 +592,12 @@
                   <c:v>1393.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1800.0</c:v>
+                  <c:v>2411.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -629,6 +637,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$12:$H$12</c:f>
@@ -749,16 +758,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="548865304"/>
-        <c:axId val="489861272"/>
+        <c:smooth val="0"/>
+        <c:axId val="401017496"/>
+        <c:axId val="401022648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548865304"/>
+        <c:axId val="401017496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -770,15 +790,18 @@
                   <a:defRPr lang="de-DE" sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="2000"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -790,18 +813,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489861272"/>
+        <c:crossAx val="401022648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489861272"/>
+        <c:axId val="401022648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -821,8 +846,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -834,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548865304"/>
+        <c:crossAx val="401017496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,6 +870,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -854,6 +883,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -867,7 +898,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -885,12 +924,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -913,6 +954,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$90:$D$90</c:f>
@@ -985,6 +1027,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1004,6 +1047,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$91:$D$91</c:f>
@@ -1076,6 +1120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1095,6 +1140,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$92:$D$92</c:f>
@@ -1167,16 +1213,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="527549384"/>
-        <c:axId val="490278744"/>
+        <c:smooth val="0"/>
+        <c:axId val="401094120"/>
+        <c:axId val="401099736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527549384"/>
+        <c:axId val="401094120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1194,9 +1251,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1208,18 +1267,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490278744"/>
+        <c:crossAx val="401099736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490278744"/>
+        <c:axId val="401099736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -1237,9 +1298,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1251,14 +1314,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527549384"/>
+        <c:crossAx val="401094120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1271,6 +1334,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1284,7 +1349,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1302,12 +1375,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1330,6 +1405,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$101:$D$101</c:f>
@@ -1402,6 +1478,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1421,6 +1498,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$102:$D$102</c:f>
@@ -1493,6 +1571,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1512,6 +1591,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$103:$D$103</c:f>
@@ -1584,16 +1664,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="549495064"/>
-        <c:axId val="448153832"/>
+        <c:smooth val="0"/>
+        <c:axId val="401142216"/>
+        <c:axId val="401147864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="549495064"/>
+        <c:axId val="401142216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1611,9 +1702,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1625,18 +1718,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448153832"/>
+        <c:crossAx val="401147864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448153832"/>
+        <c:axId val="401147864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -1654,9 +1749,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1668,14 +1765,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549495064"/>
+        <c:crossAx val="401142216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1688,6 +1785,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1701,7 +1800,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1719,12 +1826,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1747,6 +1856,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$116:$D$116</c:f>
@@ -1819,6 +1929,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1838,6 +1949,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$117:$D$117</c:f>
@@ -1910,6 +2022,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1929,6 +2042,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$118:$D$118</c:f>
@@ -2001,16 +2115,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="451302360"/>
-        <c:axId val="446703704"/>
+        <c:smooth val="0"/>
+        <c:axId val="401191528"/>
+        <c:axId val="401197176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451302360"/>
+        <c:axId val="401191528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2028,9 +2153,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2042,17 +2169,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446703704"/>
+        <c:crossAx val="401197176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446703704"/>
+        <c:axId val="401197176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2070,9 +2199,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2084,14 +2215,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451302360"/>
+        <c:crossAx val="401191528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2104,6 +2235,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2117,7 +2250,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2135,12 +2276,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2163,6 +2306,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$148:$D$148</c:f>
@@ -2235,6 +2379,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2254,6 +2399,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$149:$D$149</c:f>
@@ -2326,6 +2472,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2345,6 +2492,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$150:$D$150</c:f>
@@ -2417,16 +2565,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="484792520"/>
-        <c:axId val="485143528"/>
+        <c:smooth val="0"/>
+        <c:axId val="401240792"/>
+        <c:axId val="401246440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484792520"/>
+        <c:axId val="401240792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2444,9 +2603,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2458,18 +2619,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485143528"/>
+        <c:crossAx val="401246440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485143528"/>
+        <c:axId val="401246440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2487,9 +2650,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2501,14 +2666,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484792520"/>
+        <c:crossAx val="401240792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2521,6 +2686,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2534,7 +2701,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2552,12 +2727,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2580,6 +2757,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$171:$D$171</c:f>
@@ -2652,6 +2830,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2671,6 +2850,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$172:$D$172</c:f>
@@ -2743,6 +2923,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2762,6 +2943,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$173:$D$173</c:f>
@@ -2834,16 +3016,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="528229736"/>
-        <c:axId val="496534232"/>
+        <c:smooth val="0"/>
+        <c:axId val="401290104"/>
+        <c:axId val="401295752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528229736"/>
+        <c:axId val="401290104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2861,9 +3054,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2875,18 +3070,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496534232"/>
+        <c:crossAx val="401295752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496534232"/>
+        <c:axId val="401295752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2904,9 +3101,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2918,14 +3117,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528229736"/>
+        <c:crossAx val="401290104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2938,6 +3137,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2951,7 +3152,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2969,12 +3178,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2996,6 +3207,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$200:$B$202</c:f>
@@ -3068,6 +3280,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3090,6 +3303,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$C$200:$C$202</c:f>
@@ -3162,6 +3376,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3184,6 +3399,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$D$200:$D$202</c:f>
@@ -3256,17 +3472,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="481937240"/>
-        <c:axId val="496543320"/>
+        <c:smooth val="0"/>
+        <c:axId val="401344888"/>
+        <c:axId val="401347976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="481937240"/>
+        <c:axId val="401344888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3278,18 +3507,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496543320"/>
+        <c:crossAx val="401347976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496543320"/>
+        <c:axId val="401347976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3308,9 +3539,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3322,14 +3555,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481937240"/>
+        <c:crossAx val="401344888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3342,6 +3575,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3355,7 +3590,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3373,12 +3616,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3400,6 +3645,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$210:$B$212</c:f>
@@ -3472,6 +3718,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3494,6 +3741,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$C$210:$C$212</c:f>
@@ -3566,6 +3814,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3588,6 +3837,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$D$210:$D$212</c:f>
@@ -3660,30 +3910,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="484507608"/>
-        <c:axId val="447682392"/>
+        <c:smooth val="0"/>
+        <c:axId val="401390776"/>
+        <c:axId val="401393832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484507608"/>
+        <c:axId val="401390776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447682392"/>
+        <c:crossAx val="401393832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447682392"/>
+        <c:axId val="401393832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3702,20 +3967,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484507608"/>
+        <c:crossAx val="401390776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3739,7 +4008,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3757,12 +4034,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3784,6 +4063,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$B$219:$B$221</c:f>
@@ -3856,6 +4136,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3878,6 +4159,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$C$219:$C$221</c:f>
@@ -3950,6 +4232,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3972,6 +4255,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'Andre Rework'!$D$219:$D$221</c:f>
@@ -4044,17 +4328,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="527671864"/>
-        <c:axId val="528114216"/>
+        <c:smooth val="0"/>
+        <c:axId val="401437992"/>
+        <c:axId val="401441080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527671864"/>
+        <c:axId val="401437992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4066,18 +4363,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528114216"/>
+        <c:crossAx val="401441080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528114216"/>
+        <c:axId val="401441080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4096,9 +4395,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4110,14 +4411,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527671864"/>
+        <c:crossAx val="401437992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4130,6 +4431,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4733,14 +5036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -4799,7 +5102,7 @@
         <v>1949</v>
       </c>
       <c r="H3">
-        <v>2700</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4825,7 +5128,7 @@
         <v>1393</v>
       </c>
       <c r="H4">
-        <v>1800</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6321,7 +6624,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="32">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>tc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -85,27 +81,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Synchronous </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4BJ/4M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2BJ/2M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2M,2BJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,31 +117,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(est)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1M/4BJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2M/4BJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4M/4BJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8(32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(64)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(128)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -184,23 +140,17 @@
     <t>Synchronous</t>
   </si>
   <si>
-    <t>32(128)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1M/1BJ</t>
   </si>
   <si>
-    <t>16(64)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8(32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2M/2BJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -212,6 +162,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -232,15 +194,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,11 +772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401017496"/>
-        <c:axId val="401022648"/>
+        <c:axId val="154521560"/>
+        <c:axId val="684752184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401017496"/>
+        <c:axId val="154521560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401022648"/>
+        <c:crossAx val="684752184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -821,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401022648"/>
+        <c:axId val="684752184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -862,7 +864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401017496"/>
+        <c:crossAx val="154521560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,11 +921,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Synchronous</a:t>
+              <a:t>4BJ/4M</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -937,11 +940,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$86</c:f>
+              <c:f>'Andre Rework'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
+                  <c:v>Synchronous </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -957,36 +960,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$90:$D$90</c:f>
+                <c:f>'Andre Rework'!$B$109:$D$109</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>11.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.0</c:v>
+                    <c:v>3.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>34.0</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$90:$D$90</c:f>
+                <c:f>'Andre Rework'!$B$109:$D$109</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>11.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.0</c:v>
+                    <c:v>3.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>34.0</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -994,7 +997,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$B$104:$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1011,18 +1014,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$86:$D$86</c:f>
+              <c:f>'Andre Rework'!$B$105:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>608.0</c:v>
+                  <c:v>633.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>648.0</c:v>
+                  <c:v>718.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>715.0</c:v>
+                  <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,11 +1037,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$87</c:f>
+              <c:f>'Andre Rework'!$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2M/4BJ</c:v>
+                  <c:v>Asynchronous - Centralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1050,36 +1053,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:f>'Andre Rework'!$B$110:$D$110</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.13</c:v>
+                    <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.0</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$91:$D$91</c:f>
+                <c:f>'Andre Rework'!$B$110:$D$110</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.13</c:v>
+                    <c:v>8.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.0</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1087,7 +1090,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$B$104:$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1104,18 +1107,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$87:$D$87</c:f>
+              <c:f>'Andre Rework'!$B$106:$D$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>625.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>702.0</c:v>
+                  <c:v>606.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>762.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,11 +1130,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$88</c:f>
+              <c:f>'Andre Rework'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4M/4BJ</c:v>
+                  <c:v>Asynchronous - Decentralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1143,7 +1146,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:f>'Andre Rework'!$B$111:$D$111</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1151,7 +1154,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -1161,7 +1164,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$92:$D$92</c:f>
+                <c:f>'Andre Rework'!$B$111:$D$111</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1169,7 +1172,7 @@
                     <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6</c:v>
+                    <c:v>11.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.2</c:v>
@@ -1180,7 +1183,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$B$104:$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1197,18 +1200,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$88:$D$88</c:f>
+              <c:f>'Andre Rework'!$B$107:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>633.0</c:v>
+                  <c:v>568.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>718.6</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,11 +1228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401094120"/>
-        <c:axId val="401099736"/>
+        <c:axId val="685142664"/>
+        <c:axId val="290208312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401094120"/>
+        <c:axId val="685142664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,15 +1248,16 @@
                   <a:defRPr lang="de-DE" sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1400"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of Replicas(Number of Exchanges)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,7 +1271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401099736"/>
+        <c:crossAx val="290208312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,10 +1279,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401099736"/>
+        <c:axId val="290208312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="400.0"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1298,6 +1302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1314,13 +1319,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401094120"/>
+        <c:crossAx val="685142664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1352,10 +1358,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1370,11 +1376,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Centralized</a:t>
+              <a:t>32 replicas</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1388,18 +1395,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$97</c:f>
+              <c:f>'Andre Rework'!$B$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
+                  <c:v>Synchronous</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1408,36 +1414,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$101:$D$101</c:f>
+                <c:f>'Andre Rework'!$B$136:$B$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>5.6</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.9</c:v>
+                    <c:v>10.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.8</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$101:$D$101</c:f>
+                <c:f>'Andre Rework'!$B$136:$B$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>5.6</c:v>
+                    <c:v>34.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.9</c:v>
+                    <c:v>10.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.8</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1445,35 +1451,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$132:$A$134</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$97:$D$97</c:f>
+              <c:f>'Andre Rework'!$B$132:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>575.0</c:v>
+                  <c:v>1023.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560.0</c:v>
+                  <c:v>865.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.0</c:v>
+                  <c:v>879.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,15 +1491,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$98</c:f>
+              <c:f>'Andre Rework'!$C$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2M/4BJ</c:v>
+                  <c:v>Asynchronous - Centralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1501,36 +1510,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$102:$D$102</c:f>
+                <c:f>'Andre Rework'!$C$136:$C$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.7</c:v>
+                    <c:v>13.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.4</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$102:$D$102</c:f>
+                <c:f>'Andre Rework'!$C$136:$C$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.7</c:v>
+                    <c:v>13.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.4</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1538,35 +1547,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$132:$A$134</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$98:$D$98</c:f>
+              <c:f>'Andre Rework'!$C$132:$C$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>567.0</c:v>
+                  <c:v>804.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>591.0</c:v>
+                  <c:v>724.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>637.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,15 +1587,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$99</c:f>
+              <c:f>'Andre Rework'!$D$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4M/4BJ</c:v>
+                  <c:v>Asynchronous - Decentralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1594,36 +1606,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$103:$D$103</c:f>
+                <c:f>'Andre Rework'!$D$136:$D$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.4</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.57</c:v>
+                    <c:v>4.22</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$103:$D$103</c:f>
+                <c:f>'Andre Rework'!$D$136:$D$138</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.4</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.57</c:v>
+                    <c:v>4.22</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0</c:v>
+                    <c:v>8.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1631,35 +1643,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$132:$A$134</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$99:$D$99</c:f>
+              <c:f>'Andre Rework'!$D$132:$D$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>600.0</c:v>
+                  <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>606.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,49 +1688,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401142216"/>
-        <c:axId val="401147864"/>
+        <c:axId val="685495544"/>
+        <c:axId val="175803256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401142216"/>
+        <c:axId val="685495544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401147864"/>
+        <c:crossAx val="175803256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1726,63 +1709,27 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401147864"/>
+        <c:axId val="175803256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
-                  <a:t>Runtime (in sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401142216"/>
+        <c:crossAx val="685495544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1803,10 +1750,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1821,11 +1768,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Decentralized</a:t>
+              <a:t>16 replicas</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1839,18 +1787,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$112</c:f>
+              <c:f>'Andre Rework'!$B$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
+                  <c:v>Synchronous</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1859,36 +1806,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$116:$D$116</c:f>
+                <c:f>'Andre Rework'!$B$146:$B$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.0</c:v>
+                    <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>23.0</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.4</c:v>
+                    <c:v>3.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$116:$D$116</c:f>
+                <c:f>'Andre Rework'!$B$146:$B$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.0</c:v>
+                    <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>23.0</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.4</c:v>
+                    <c:v>3.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1896,35 +1843,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$142:$A$144</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$112:$D$112</c:f>
+              <c:f>'Andre Rework'!$B$142:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>607.2</c:v>
+                  <c:v>802.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>618.4</c:v>
+                  <c:v>754.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.8</c:v>
+                  <c:v>718.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,15 +1883,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$113</c:f>
+              <c:f>'Andre Rework'!$C$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2M/4BJ</c:v>
+                  <c:v>Asynchronous - Centralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1952,36 +1902,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$117:$D$117</c:f>
+                <c:f>'Andre Rework'!$C$146:$C$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.0</c:v>
+                    <c:v>16.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0</c:v>
+                    <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$117:$D$117</c:f>
+                <c:f>'Andre Rework'!$C$146:$C$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.0</c:v>
+                    <c:v>16.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0</c:v>
+                    <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>4.57</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1989,35 +1939,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$142:$A$144</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$113:$D$113</c:f>
+              <c:f>'Andre Rework'!$C$142:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>606.4</c:v>
+                  <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>633.8</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>623.6</c:v>
+                  <c:v>606.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,15 +1979,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$114</c:f>
+              <c:f>'Andre Rework'!$D$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4M/4BJ</c:v>
+                  <c:v>Asynchronous - Decentralized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -2045,36 +1998,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$118:$D$118</c:f>
+                <c:f>'Andre Rework'!$D$146:$D$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.0</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.1</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>11.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$118:$D$118</c:f>
+                <c:f>'Andre Rework'!$D$146:$D$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.0</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.1</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>11.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2082,35 +2035,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$142:$A$144</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$114:$D$114</c:f>
+              <c:f>'Andre Rework'!$D$142:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>568.0</c:v>
+                  <c:v>622.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>594.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>611.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,49 +2080,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401191528"/>
-        <c:axId val="401197176"/>
+        <c:axId val="177192056"/>
+        <c:axId val="146397464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401191528"/>
+        <c:axId val="177192056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401197176"/>
+        <c:crossAx val="146397464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,62 +2101,27 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401197176"/>
+        <c:axId val="146397464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
-                  <a:t>Runtime (in sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401191528"/>
+        <c:crossAx val="177192056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2253,10 +2142,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2271,11 +2160,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2BJ/2M</a:t>
+              <a:t>8 replicas</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2289,18 +2179,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$144</c:f>
+              <c:f>'Andre Rework'!$B$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Synchronous </c:v>
+                  <c:v>Synchronous</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -2309,15 +2198,15 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$148:$D$148</c:f>
+                <c:f>'Andre Rework'!$B$155:$B$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0</c:v>
+                    <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>10.0</c:v>
@@ -2327,15 +2216,15 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$148:$D$148</c:f>
+                <c:f>'Andre Rework'!$B$155:$B$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0</c:v>
+                    <c:v>11.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>24.0</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>10.0</c:v>
@@ -2346,35 +2235,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$151:$A$153</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$144:$D$144</c:f>
+              <c:f>'Andre Rework'!$B$151:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>651.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>754.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>865.0</c:v>
+                  <c:v>633.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,7 +2275,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$145</c:f>
+              <c:f>'Andre Rework'!$C$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2395,6 +2284,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -2402,36 +2294,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$149:$D$149</c:f>
+                <c:f>'Andre Rework'!$C$155:$C$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
+                    <c:v>3.23</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>5.5</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>8.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$149:$D$149</c:f>
+                <c:f>'Andre Rework'!$C$155:$C$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
+                    <c:v>3.23</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>5.5</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>8.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2439,35 +2331,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$151:$A$153</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$145:$D$145</c:f>
+              <c:f>'Andre Rework'!$C$151:$C$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>632.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>652.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>724.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,7 +2371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$146</c:f>
+              <c:f>'Andre Rework'!$D$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2488,6 +2380,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -2495,36 +2390,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$150:$D$150</c:f>
+                <c:f>'Andre Rework'!$D$155:$D$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.99</c:v>
+                    <c:v>6.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.79</c:v>
+                    <c:v>7.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$150:$D$150</c:f>
+                <c:f>'Andre Rework'!$D$155:$D$157</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.99</c:v>
+                    <c:v>6.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.79</c:v>
+                    <c:v>7.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2532,35 +2427,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85:$D$85</c:f>
+              <c:f>'Andre Rework'!$A$151:$A$153</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8(32)</c:v>
+                  <c:v>1M/1BJ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16(64)</c:v>
+                  <c:v>2M/2BJ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32(128)</c:v>
+                  <c:v>4M/4BJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$146:$D$146</c:f>
+              <c:f>'Andre Rework'!$D$151:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>601.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>621.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>626.0</c:v>
+                  <c:v>568.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,49 +2472,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401240792"/>
-        <c:axId val="401246440"/>
+        <c:axId val="289904552"/>
+        <c:axId val="146389912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401240792"/>
+        <c:axId val="289904552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401246440"/>
+        <c:crossAx val="146389912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,63 +2493,27 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401246440"/>
+        <c:axId val="146389912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
-                  <a:t>Runtime (in sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401240792"/>
+        <c:crossAx val="289904552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2722,11 +2552,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4BJ/4M</a:t>
+              <a:t>2BJ/2M</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2740,7 +2571,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$167</c:f>
+              <c:f>'Andre Rework'!$A$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2750,8 +2581,7 @@
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -2760,36 +2590,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$171:$D$171</c:f>
+                <c:f>'Andre Rework'!$B$86:$D$86</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.0</c:v>
+                    <c:v>3.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.0</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$171:$D$171</c:f>
+                <c:f>'Andre Rework'!$B$86:$D$86</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.0</c:v>
+                    <c:v>3.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8</c:v>
+                    <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.0</c:v>
+                    <c:v>10.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2797,7 +2627,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
+              <c:f>'Andre Rework'!$B$81:$D$81</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2814,18 +2644,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$167:$D$167</c:f>
+              <c:f>'Andre Rework'!$B$82:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>633.0</c:v>
+                  <c:v>651.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>718.0</c:v>
+                  <c:v>754.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.0</c:v>
+                  <c:v>865.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,7 +2667,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$168</c:f>
+              <c:f>'Andre Rework'!$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2846,6 +2676,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -2853,36 +2686,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$172:$D$172</c:f>
+                <c:f>'Andre Rework'!$B$87:$D$87</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.4</c:v>
+                    <c:v>5.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.57</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$172:$D$172</c:f>
+                <c:f>'Andre Rework'!$B$87:$D$87</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.4</c:v>
+                    <c:v>5.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.57</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0</c:v>
+                    <c:v>27.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2890,7 +2723,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
+              <c:f>'Andre Rework'!$B$81:$D$81</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2907,18 +2740,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$168:$D$168</c:f>
+              <c:f>'Andre Rework'!$B$83:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>600.0</c:v>
+                  <c:v>632.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>606.0</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.0</c:v>
+                  <c:v>724.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2763,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$169</c:f>
+              <c:f>'Andre Rework'!$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2939,6 +2772,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -2946,36 +2782,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$173:$D$173</c:f>
+                <c:f>'Andre Rework'!$B$88:$D$88</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.0</c:v>
+                    <c:v>6.99</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.1</c:v>
+                    <c:v>10.79</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>4.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$173:$D$173</c:f>
+                <c:f>'Andre Rework'!$B$88:$D$88</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.0</c:v>
+                    <c:v>6.99</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.1</c:v>
+                    <c:v>10.79</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>4.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2983,7 +2819,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$166:$D$166</c:f>
+              <c:f>'Andre Rework'!$B$81:$D$81</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3000,18 +2836,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$169:$D$169</c:f>
+              <c:f>'Andre Rework'!$B$84:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>568.0</c:v>
+                  <c:v>601.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594.0</c:v>
+                  <c:v>621.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>611.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,11 +2864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401290104"/>
-        <c:axId val="401295752"/>
+        <c:axId val="146279800"/>
+        <c:axId val="146281208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401290104"/>
+        <c:axId val="146279800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,32 +2881,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1400"/>
-                  <a:t>Number of Replicas(Number of Exchanges)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of replicas</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (exchanges)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401295752"/>
+        <c:crossAx val="146281208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3078,444 +2909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401295752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="de-DE" sz="1300"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1300"/>
-                  <a:t>Runtime (in sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="de-DE" sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401290104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="de-DE" sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>32 replicas/128 exchanges</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$195</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$200:$B$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>34.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$200:$B$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>34.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$196:$B$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>715.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>762.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>879.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$C$195</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Centralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$200:$C$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>14.8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$200:$C$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>14.8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$C$196:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>633.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>637.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>635.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$D$195</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Decentralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$200:$D$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$200:$D$202</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>2.4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$196:$A$198</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$D$196:$D$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>633.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>623.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>611.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="401344888"/>
-        <c:axId val="401347976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="401344888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401347976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="401347976"/>
+        <c:axId val="146281208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -3523,912 +2917,19 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401344888"/>
+        <c:crossAx val="146279800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>16 replicas/64 exchanges</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$205</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$210:$B$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$210:$B$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>17.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>24.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.6</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$206:$B$208</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>648.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>702.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>718.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$C$205</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Centralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$210:$C$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>16.9</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.57</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$210:$C$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>16.9</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.57</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$C$206:$C$208</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>560.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>591.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>606.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$D$205</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Decentralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$210:$D$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>23.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$210:$D$212</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>23.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$206:$A$208</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$D$206:$D$208</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>618.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>633.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>594.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="401390776"/>
-        <c:axId val="401393832"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="401390776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401393832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="401393832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401390776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>8 replicas/32 exchanges</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$B$214</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$219:$B$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>11.2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$B$219:$B$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>11.2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$B$215:$B$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>608.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>625.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>633.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$C$214</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Centralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$219:$C$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>5.6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$C$219:$C$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>5.6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$C$215:$C$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>575.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>567.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Andre Rework'!$D$214</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Asynchronous - Decentralized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$219:$D$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>6.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Andre Rework'!$D$219:$D$221</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>6.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>27.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Andre Rework'!$A$215:$A$217</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2M/4BJ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4M/4BJ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Andre Rework'!$D$215:$D$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>607.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>606.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>568.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="401437992"/>
-        <c:axId val="401441080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="401437992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401441080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="401441080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="401437992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4476,20 +2977,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 2"/>
+        <xdr:cNvPr id="11" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4506,20 +3007,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4537,19 +3038,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4566,20 +3067,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4596,20 +3097,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagramm 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4619,96 +3120,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Chart 29"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5037,10 +3448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F66" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5056,25 +3467,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5176,13 +3587,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5265,23 +3676,23 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <f>685-0.3*4*8-1.3*4*8</f>
@@ -5329,13 +3740,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5373,28 +3784,28 @@
     </row>
     <row r="30" spans="1:5">
       <c r="E30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <f>685-0.3*6*8-1.3*6*8</f>
@@ -5409,7 +3820,7 @@
         <v>715.8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5423,7 +3834,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5440,18 +3851,18 @@
         <v>633.79999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="B37">
         <v>11.2</v>
       </c>
@@ -5462,7 +3873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="B38">
         <v>5.6</v>
       </c>
@@ -5473,7 +3884,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="B39">
         <v>6</v>
       </c>
@@ -5484,130 +3895,25 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>651</v>
-      </c>
-      <c r="C43">
-        <v>754</v>
-      </c>
-      <c r="D43">
-        <v>865</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>632</v>
-      </c>
-      <c r="C44">
-        <v>652</v>
-      </c>
-      <c r="D44">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>607</v>
-      </c>
-      <c r="C45">
-        <v>635</v>
-      </c>
-      <c r="D45">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48">
-        <v>5.5</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <f>651-0.3*2*8-1.3*2*8</f>
@@ -5655,13 +3961,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5699,23 +4005,23 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>633</v>
@@ -5757,13 +4063,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5799,823 +4105,507 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>651</v>
+      </c>
+      <c r="C82">
+        <v>754</v>
+      </c>
+      <c r="D82">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>632</v>
+      </c>
+      <c r="C83">
+        <v>652</v>
+      </c>
+      <c r="D83">
+        <v>724</v>
+      </c>
+    </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>601</v>
+      </c>
+      <c r="C84">
+        <v>621</v>
+      </c>
+      <c r="D84">
+        <v>626</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="B85" s="2" t="s">
-        <v>33</v>
+      <c r="B85" t="s">
+        <v>20</v>
       </c>
       <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87">
+        <v>5.5</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88">
+        <v>6.99</v>
+      </c>
+      <c r="C88">
+        <v>10.79</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>633</v>
+      </c>
+      <c r="C105">
+        <v>718</v>
+      </c>
+      <c r="D105">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>600</v>
+      </c>
+      <c r="C106">
+        <v>606</v>
+      </c>
+      <c r="D106">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>568</v>
+      </c>
+      <c r="C107">
+        <v>594</v>
+      </c>
+      <c r="D107">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>3.8</v>
+      </c>
+      <c r="D109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110">
+        <v>8.4</v>
+      </c>
+      <c r="C110">
+        <v>4.57</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111">
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <v>11.1</v>
+      </c>
+      <c r="D111">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132">
+        <v>1023</v>
+      </c>
+      <c r="C132">
+        <v>804</v>
+      </c>
+      <c r="D132">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133">
+        <v>865</v>
+      </c>
+      <c r="C133">
+        <v>724</v>
+      </c>
+      <c r="D133">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134">
+        <v>879</v>
+      </c>
+      <c r="C134">
+        <v>635</v>
+      </c>
+      <c r="D134">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136">
         <v>34</v>
       </c>
-      <c r="D85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <v>608</v>
-      </c>
-      <c r="C86">
-        <v>648</v>
-      </c>
-      <c r="D86">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87">
-        <v>625</v>
-      </c>
-      <c r="C87">
-        <v>702</v>
-      </c>
-      <c r="D87">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88">
-        <v>633</v>
-      </c>
-      <c r="C88">
-        <v>718.6</v>
-      </c>
-      <c r="D88">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="B90">
-        <v>11.2</v>
-      </c>
-      <c r="C90">
-        <v>17</v>
-      </c>
-      <c r="D90">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="B91">
-        <v>3.13</v>
-      </c>
-      <c r="C91">
-        <v>24</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="B92">
+      <c r="C136">
+        <v>13.4</v>
+      </c>
+      <c r="D136">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C137">
         <v>27</v>
       </c>
-      <c r="C92">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D92">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="D137">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="B96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97">
-        <v>575</v>
-      </c>
-      <c r="C97">
-        <v>560</v>
-      </c>
-      <c r="D97">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98">
-        <v>567</v>
-      </c>
-      <c r="C98">
-        <v>591</v>
-      </c>
-      <c r="D98">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99">
-        <v>600</v>
-      </c>
-      <c r="C99">
-        <v>606</v>
-      </c>
-      <c r="D99">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="B101">
-        <v>5.6</v>
-      </c>
-      <c r="C101">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D101">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="B102">
-        <v>1.7</v>
-      </c>
-      <c r="C102">
-        <v>3.4</v>
-      </c>
-      <c r="D102">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="B103">
-        <v>8.4</v>
-      </c>
-      <c r="C103">
-        <v>4.57</v>
-      </c>
-      <c r="D103">
+      <c r="C138">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="B111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112">
-        <f>609-0.3*6</f>
-        <v>607.20000000000005</v>
-      </c>
-      <c r="C112">
-        <f>622-0.3*12</f>
-        <v>618.4</v>
-      </c>
-      <c r="D112">
-        <f>641-0.3*24</f>
-        <v>633.79999999999995</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113">
-        <f>607-0.3*2</f>
-        <v>606.4</v>
-      </c>
-      <c r="C113">
-        <f>635-0.3*4</f>
-        <v>633.79999999999995</v>
-      </c>
-      <c r="D113">
-        <v>623.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114">
-        <v>568</v>
-      </c>
-      <c r="C114">
-        <v>594</v>
-      </c>
-      <c r="D114">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="B116">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>23</v>
-      </c>
-      <c r="D116">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="B118">
-        <v>27</v>
-      </c>
-      <c r="C118">
-        <v>11.1</v>
-      </c>
-      <c r="D118">
+      <c r="D138">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142">
+        <v>802</v>
+      </c>
+      <c r="C142">
+        <v>701</v>
+      </c>
+      <c r="D142">
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C143" t="s">
-        <v>37</v>
-      </c>
-      <c r="D143" t="s">
-        <v>38</v>
+      <c r="A143" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143">
+        <v>754</v>
+      </c>
+      <c r="C143">
+        <v>652</v>
+      </c>
+      <c r="D143">
+        <v>621</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B144">
-        <v>651</v>
+        <v>718.6</v>
       </c>
       <c r="C144">
-        <v>754</v>
+        <v>606</v>
       </c>
       <c r="D144">
-        <v>865</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>632</v>
-      </c>
-      <c r="C145">
-        <v>652</v>
-      </c>
-      <c r="D145">
-        <v>724</v>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>2</v>
-      </c>
       <c r="B146">
-        <v>601</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>621</v>
+        <v>16</v>
       </c>
       <c r="D146">
-        <v>626</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="B147" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" t="s">
-        <v>25</v>
+      <c r="B147">
+        <v>24</v>
+      </c>
+      <c r="C147">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="B148">
+        <v>3.8</v>
+      </c>
+      <c r="C148">
+        <v>4.57</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151">
+        <v>685</v>
+      </c>
+      <c r="C151">
+        <v>630</v>
+      </c>
+      <c r="D151">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152">
+        <v>651</v>
+      </c>
+      <c r="C152">
+        <v>632</v>
+      </c>
+      <c r="D152">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153">
+        <v>633</v>
+      </c>
+      <c r="C153">
+        <v>600</v>
+      </c>
+      <c r="D153">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
         <v>3</v>
       </c>
-      <c r="C148">
-        <v>24</v>
-      </c>
-      <c r="D148">
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155">
+        <v>11.2</v>
+      </c>
+      <c r="C155">
+        <v>3.23</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156">
+        <v>3.13</v>
+      </c>
+      <c r="C156">
+        <v>5.5</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149">
-        <v>5.5</v>
-      </c>
-      <c r="C149">
-        <v>5</v>
-      </c>
-      <c r="D149">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150">
-        <v>6.99</v>
-      </c>
-      <c r="C150">
-        <v>10.79</v>
-      </c>
-      <c r="D150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="B166" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C166" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167">
-        <v>633</v>
-      </c>
-      <c r="C167">
-        <v>718</v>
-      </c>
-      <c r="D167">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>600</v>
-      </c>
-      <c r="C168">
-        <v>606</v>
-      </c>
-      <c r="D168">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169">
-        <v>568</v>
-      </c>
-      <c r="C169">
-        <v>594</v>
-      </c>
-      <c r="D169">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="B170" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="B171">
-        <v>11</v>
-      </c>
-      <c r="C171">
-        <v>3.8</v>
-      </c>
-      <c r="D171">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="B172">
+      <c r="C157">
         <v>8.4</v>
       </c>
-      <c r="C172">
-        <v>4.57</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="B173">
-        <v>27</v>
-      </c>
-      <c r="C173">
-        <v>11.1</v>
-      </c>
-      <c r="D173">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>41</v>
-      </c>
-      <c r="B195" t="s">
-        <v>40</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>30</v>
-      </c>
-      <c r="B196">
-        <v>715</v>
-      </c>
-      <c r="C196">
-        <v>633</v>
-      </c>
-      <c r="D196">
-        <f>641-0.3*24</f>
-        <v>633.79999999999995</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>31</v>
-      </c>
-      <c r="B197">
-        <v>762</v>
-      </c>
-      <c r="C197">
-        <v>637</v>
-      </c>
-      <c r="D197">
-        <v>623.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>32</v>
-      </c>
-      <c r="B198">
-        <v>879</v>
-      </c>
-      <c r="C198">
-        <v>635</v>
-      </c>
-      <c r="D198">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="B200">
-        <v>34</v>
-      </c>
-      <c r="C200">
-        <v>14.8</v>
-      </c>
-      <c r="D200">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201">
-        <v>10</v>
-      </c>
-      <c r="C201">
-        <v>2.4</v>
-      </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-      <c r="D202">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>42</v>
-      </c>
-      <c r="B205" t="s">
-        <v>40</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>30</v>
-      </c>
-      <c r="B206">
-        <v>648</v>
-      </c>
-      <c r="C206">
-        <v>560</v>
-      </c>
-      <c r="D206">
-        <f>622-0.3*12</f>
-        <v>618.4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>31</v>
-      </c>
-      <c r="B207">
-        <v>702</v>
-      </c>
-      <c r="C207">
-        <v>591</v>
-      </c>
-      <c r="D207">
-        <f>635-0.3*4</f>
-        <v>633.79999999999995</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208">
-        <v>718.6</v>
-      </c>
-      <c r="C208">
-        <v>606</v>
-      </c>
-      <c r="D208">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="B209" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="B210">
-        <v>17</v>
-      </c>
-      <c r="C210">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D210">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="B211">
-        <v>24</v>
-      </c>
-      <c r="C211">
-        <v>3.4</v>
-      </c>
-      <c r="D211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="B212">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C212">
-        <v>4.57</v>
-      </c>
-      <c r="D212">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>43</v>
-      </c>
-      <c r="B214" t="s">
-        <v>40</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1</v>
-      </c>
-      <c r="D214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>30</v>
-      </c>
-      <c r="B215">
-        <v>608</v>
-      </c>
-      <c r="C215">
-        <v>575</v>
-      </c>
-      <c r="D215">
-        <f>609-0.3*6</f>
-        <v>607.20000000000005</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>31</v>
-      </c>
-      <c r="B216">
-        <v>625</v>
-      </c>
-      <c r="C216">
-        <v>567</v>
-      </c>
-      <c r="D216">
-        <f>607-0.3*2</f>
-        <v>606.4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217">
-        <v>633</v>
-      </c>
-      <c r="C217">
-        <v>600</v>
-      </c>
-      <c r="D217">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="B218" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="B219">
-        <v>11.2</v>
-      </c>
-      <c r="C219">
-        <v>5.6</v>
-      </c>
-      <c r="D219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="B220">
-        <v>3.13</v>
-      </c>
-      <c r="C220">
-        <v>1.7</v>
-      </c>
-      <c r="D220">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="B221">
-        <v>27</v>
-      </c>
-      <c r="C221">
-        <v>8.4</v>
-      </c>
-      <c r="D221">
+      <c r="D157">
         <v>27</v>
       </c>
     </row>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="28640" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="16300" yWindow="180" windowWidth="24720" windowHeight="15180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>Synchronous</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,16 +106,16 @@
     <t>2M/2BJ</t>
   </si>
   <si>
-    <t>cent</t>
+    <t>1M/4BJ</t>
   </si>
   <si>
-    <t>se</t>
+    <t>2M/4BJ</t>
   </si>
   <si>
-    <t>1m/4bj</t>
+    <t>16(64)</t>
   </si>
   <si>
-    <t>2m/4bj</t>
+    <t>8(32)</t>
   </si>
 </sst>
 </file>
@@ -166,8 +166,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -203,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -219,6 +231,12 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -234,6 +252,12 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,11 +787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153435864"/>
-        <c:axId val="215330616"/>
+        <c:axId val="631291960"/>
+        <c:axId val="632706392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153435864"/>
+        <c:axId val="631291960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215330616"/>
+        <c:crossAx val="632706392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -814,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215330616"/>
+        <c:axId val="632706392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -855,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153435864"/>
+        <c:crossAx val="631291960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$66</c:f>
+              <c:f>'Andre Rework'!$B$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,7 +974,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$71:$B$73</c:f>
+                <c:f>'Andre Rework'!$B$120:$B$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -968,7 +992,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$71:$B$73</c:f>
+                <c:f>'Andre Rework'!$B$120:$B$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -987,7 +1011,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$67:$A$69</c:f>
+              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1004,7 +1028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$67:$B$69</c:f>
+              <c:f>'Andre Rework'!$B$116:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1027,7 +1051,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$66</c:f>
+              <c:f>'Andre Rework'!$C$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1046,7 +1070,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$71:$C$73</c:f>
+                <c:f>'Andre Rework'!$C$120:$C$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1064,7 +1088,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$71:$C$73</c:f>
+                <c:f>'Andre Rework'!$C$120:$C$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1083,7 +1107,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$67:$A$69</c:f>
+              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1100,7 +1124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$67:$C$69</c:f>
+              <c:f>'Andre Rework'!$C$116:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1123,7 +1147,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$66</c:f>
+              <c:f>'Andre Rework'!$D$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,7 +1166,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$71:$D$73</c:f>
+                <c:f>'Andre Rework'!$D$120:$D$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1160,7 +1184,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$71:$D$73</c:f>
+                <c:f>'Andre Rework'!$D$120:$D$122</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1179,7 +1203,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$67:$A$69</c:f>
+              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1196,7 +1220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$67:$D$69</c:f>
+              <c:f>'Andre Rework'!$D$116:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1224,11 +1248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290345320"/>
-        <c:axId val="211264936"/>
+        <c:axId val="552575192"/>
+        <c:axId val="10347448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290345320"/>
+        <c:axId val="552575192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211264936"/>
+        <c:crossAx val="10347448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211264936"/>
+        <c:axId val="10347448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1257,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290345320"/>
+        <c:crossAx val="552575192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,7 +1347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$76</c:f>
+              <c:f>'Andre Rework'!$B$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,7 +1366,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$81:$B$83</c:f>
+                <c:f>'Andre Rework'!$B$130:$B$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1360,7 +1384,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$81:$B$83</c:f>
+                <c:f>'Andre Rework'!$B$130:$B$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1379,7 +1403,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$77:$A$79</c:f>
+              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1396,7 +1420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$77:$B$79</c:f>
+              <c:f>'Andre Rework'!$B$126:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1419,7 +1443,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$76</c:f>
+              <c:f>'Andre Rework'!$C$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1438,7 +1462,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$81:$C$83</c:f>
+                <c:f>'Andre Rework'!$C$130:$C$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1456,7 +1480,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$81:$C$83</c:f>
+                <c:f>'Andre Rework'!$C$130:$C$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1475,7 +1499,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$77:$A$79</c:f>
+              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1492,7 +1516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$77:$C$79</c:f>
+              <c:f>'Andre Rework'!$C$126:$C$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1515,7 +1539,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$76</c:f>
+              <c:f>'Andre Rework'!$D$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1534,7 +1558,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$81:$D$83</c:f>
+                <c:f>'Andre Rework'!$D$130:$D$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1552,7 +1576,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$81:$D$83</c:f>
+                <c:f>'Andre Rework'!$D$130:$D$132</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1571,7 +1595,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$77:$A$79</c:f>
+              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1588,7 +1612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$77:$D$79</c:f>
+              <c:f>'Andre Rework'!$D$126:$D$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1616,11 +1640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153520504"/>
-        <c:axId val="216628440"/>
+        <c:axId val="632088280"/>
+        <c:axId val="632091304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153520504"/>
+        <c:axId val="632088280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216628440"/>
+        <c:crossAx val="632091304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216628440"/>
+        <c:axId val="632091304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1649,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153520504"/>
+        <c:crossAx val="632088280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$85</c:f>
+              <c:f>'Andre Rework'!$B$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1734,7 +1758,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$90:$B$92</c:f>
+                <c:f>'Andre Rework'!$B$139:$B$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1752,7 +1776,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$90:$B$92</c:f>
+                <c:f>'Andre Rework'!$B$139:$B$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1771,7 +1795,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$86:$A$88</c:f>
+              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1788,7 +1812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$86:$B$88</c:f>
+              <c:f>'Andre Rework'!$B$135:$B$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1811,7 +1835,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$85</c:f>
+              <c:f>'Andre Rework'!$C$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1830,7 +1854,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$90:$C$92</c:f>
+                <c:f>'Andre Rework'!$C$139:$C$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1848,7 +1872,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$90:$C$92</c:f>
+                <c:f>'Andre Rework'!$C$139:$C$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1867,7 +1891,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$86:$A$88</c:f>
+              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1884,7 +1908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$86:$C$88</c:f>
+              <c:f>'Andre Rework'!$C$135:$C$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1907,7 +1931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$85</c:f>
+              <c:f>'Andre Rework'!$D$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1926,7 +1950,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$90:$D$92</c:f>
+                <c:f>'Andre Rework'!$D$139:$D$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1944,7 +1968,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$90:$D$92</c:f>
+                <c:f>'Andre Rework'!$D$139:$D$141</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1963,7 +1987,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$86:$A$88</c:f>
+              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1980,7 +2004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$86:$D$88</c:f>
+              <c:f>'Andre Rework'!$D$135:$D$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2008,11 +2032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="685083464"/>
-        <c:axId val="209794696"/>
+        <c:axId val="632682392"/>
+        <c:axId val="632711576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="685083464"/>
+        <c:axId val="632682392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209794696"/>
+        <c:crossAx val="632711576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2029,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209794696"/>
+        <c:axId val="632711576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2041,7 +2065,1188 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="685083464"/>
+        <c:crossAx val="632682392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>32 replicas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$59:$B$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>37.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$59:$B$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>37.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$55:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1230.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1336.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$59:$C$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$59:$C$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$55:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>635.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$59:$D$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$59:$D$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$55:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="551125976"/>
+        <c:axId val="630867256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="551125976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="630867256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630867256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551125976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> replicas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$69:$B$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>20.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$69:$B$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>20.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$65:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>916.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>719.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$69:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$69:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$65:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>606.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$69:$D$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$69:$D$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$65:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="390423624"/>
+        <c:axId val="539423304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390423624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539423304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539423304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="390423624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>8 replicas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$79:$B$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$79:$B$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$75:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>757.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$79:$C$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$79:$C$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$75:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Andre Rework'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asynchronous - Decentralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$79:$D$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$79:$D$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>17.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$75:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>582.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>596.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>568.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="404886744"/>
+        <c:axId val="573972920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404886744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573972920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573972920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="404886744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2099,13 +3304,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2129,13 +3334,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2159,13 +3364,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2180,6 +3385,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2508,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2739,384 +4040,610 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>1230</v>
+      </c>
+      <c r="C55">
+        <v>662</v>
+      </c>
+      <c r="D55">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>1336</v>
+      </c>
+      <c r="C56">
+        <v>649</v>
+      </c>
+      <c r="D56">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>879</v>
+      </c>
+      <c r="C57">
+        <v>635</v>
+      </c>
+      <c r="D57">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B43">
-        <v>572</v>
-      </c>
-      <c r="C43">
-        <v>567</v>
-      </c>
-      <c r="D43">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>567</v>
-      </c>
-      <c r="C47">
-        <v>591</v>
-      </c>
-      <c r="D47">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>1.7</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2.4</v>
+      <c r="B65">
+        <v>916</v>
+      </c>
+      <c r="C65">
+        <v>621</v>
+      </c>
+      <c r="D65">
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>983</v>
+      </c>
+      <c r="C66">
+        <v>608</v>
+      </c>
+      <c r="D66">
+        <v>625</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>719</v>
+      </c>
+      <c r="C67">
+        <v>606</v>
+      </c>
+      <c r="D67">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69">
         <v>20</v>
       </c>
-      <c r="B67">
-        <v>1023</v>
-      </c>
-      <c r="C67">
-        <v>804</v>
-      </c>
-      <c r="D67">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68">
-        <v>865</v>
-      </c>
-      <c r="C68">
-        <v>724</v>
-      </c>
-      <c r="D68">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69">
-        <v>879</v>
-      </c>
       <c r="C69">
-        <v>635</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>611</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="B71">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>13.4</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C72">
-        <v>27</v>
-      </c>
-      <c r="D72">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="B73">
-        <v>18</v>
-      </c>
-      <c r="C73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
         <v>2</v>
       </c>
-      <c r="D73">
-        <v>8.1999999999999993</v>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>757</v>
+      </c>
+      <c r="C75">
+        <v>585</v>
+      </c>
+      <c r="D75">
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>723</v>
+      </c>
+      <c r="C76">
+        <v>585</v>
+      </c>
+      <c r="D76">
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>633</v>
+      </c>
+      <c r="C77">
+        <v>600</v>
+      </c>
+      <c r="D77">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80">
+        <v>4.3</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>20</v>
       </c>
-      <c r="B77">
+      <c r="B116">
+        <v>1023</v>
+      </c>
+      <c r="C116">
+        <v>804</v>
+      </c>
+      <c r="D116">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117">
+        <v>865</v>
+      </c>
+      <c r="C117">
+        <v>724</v>
+      </c>
+      <c r="D117">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>879</v>
+      </c>
+      <c r="C118">
+        <v>635</v>
+      </c>
+      <c r="D118">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120">
+        <v>34</v>
+      </c>
+      <c r="C120">
+        <v>13.4</v>
+      </c>
+      <c r="D120">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C121">
+        <v>27</v>
+      </c>
+      <c r="D121">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126">
         <v>802</v>
       </c>
-      <c r="C77">
+      <c r="C126">
         <v>701</v>
       </c>
-      <c r="D77">
+      <c r="D126">
         <v>622</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>21</v>
       </c>
-      <c r="B78">
+      <c r="B127">
         <v>754</v>
       </c>
-      <c r="C78">
+      <c r="C127">
         <v>652</v>
       </c>
-      <c r="D78">
+      <c r="D127">
         <v>621</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
         <v>15</v>
       </c>
-      <c r="B79">
+      <c r="B128">
         <v>718.6</v>
       </c>
-      <c r="C79">
+      <c r="C128">
         <v>606</v>
       </c>
-      <c r="D79">
+      <c r="D128">
         <v>594</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="B80" t="s">
+    <row r="129" spans="1:4">
+      <c r="B129" t="s">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C129" t="s">
         <v>3</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D129" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="B81">
+    <row r="130" spans="1:4">
+      <c r="B130">
         <v>17</v>
       </c>
-      <c r="C81">
+      <c r="C130">
         <v>16</v>
       </c>
-      <c r="D81">
+      <c r="D130">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="B82">
+    <row r="131" spans="1:4">
+      <c r="B131">
         <v>24</v>
       </c>
-      <c r="C82">
+      <c r="C131">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D82">
+      <c r="D131">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="B83">
+    <row r="132" spans="1:4">
+      <c r="B132">
         <v>3.8</v>
       </c>
-      <c r="C83">
+      <c r="C132">
         <v>4.57</v>
       </c>
-      <c r="D83">
+      <c r="D132">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>16</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B134" t="s">
         <v>19</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C134" t="s">
         <v>1</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D134" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="B86">
+      <c r="B135">
         <v>685</v>
       </c>
-      <c r="C86">
+      <c r="C135">
         <v>630</v>
       </c>
-      <c r="D86">
+      <c r="D135">
         <v>609</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>21</v>
       </c>
-      <c r="B87">
+      <c r="B136">
         <v>651</v>
       </c>
-      <c r="C87">
+      <c r="C136">
         <v>632</v>
       </c>
-      <c r="D87">
+      <c r="D136">
         <v>601</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>15</v>
       </c>
-      <c r="B88">
+      <c r="B137">
         <v>633</v>
       </c>
-      <c r="C88">
+      <c r="C137">
         <v>600</v>
       </c>
-      <c r="D88">
+      <c r="D137">
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="B89" t="s">
+    <row r="138" spans="1:4">
+      <c r="B138" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C138" t="s">
         <v>3</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D138" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="B90">
+    <row r="139" spans="1:4">
+      <c r="B139">
         <v>11.2</v>
       </c>
-      <c r="C90">
+      <c r="C139">
         <v>3.23</v>
       </c>
-      <c r="D90">
+      <c r="D139">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="B91">
+    <row r="140" spans="1:4">
+      <c r="B140">
         <v>3.13</v>
       </c>
-      <c r="C91">
+      <c r="C140">
         <v>5.5</v>
       </c>
-      <c r="D91">
+      <c r="D140">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="B92">
+    <row r="141" spans="1:4">
+      <c r="B141">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="C141">
         <v>8.4</v>
       </c>
-      <c r="D92">
+      <c r="D141">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="180" windowWidth="24720" windowHeight="15180" tabRatio="500"/>
+    <workbookView xWindow="18560" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -787,11 +787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631291960"/>
-        <c:axId val="632706392"/>
+        <c:axId val="579240328"/>
+        <c:axId val="566204360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="631291960"/>
+        <c:axId val="579240328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632706392"/>
+        <c:crossAx val="566204360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632706392"/>
+        <c:axId val="566204360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -879,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631291960"/>
+        <c:crossAx val="579240328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1248,11 +1248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552575192"/>
-        <c:axId val="10347448"/>
+        <c:axId val="567406744"/>
+        <c:axId val="567405848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552575192"/>
+        <c:axId val="567406744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10347448"/>
+        <c:crossAx val="567405848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10347448"/>
+        <c:axId val="567405848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1281,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552575192"/>
+        <c:crossAx val="567406744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,11 +1640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632088280"/>
-        <c:axId val="632091304"/>
+        <c:axId val="244748184"/>
+        <c:axId val="565746088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632088280"/>
+        <c:axId val="244748184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632091304"/>
+        <c:crossAx val="565746088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632091304"/>
+        <c:axId val="565746088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1673,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632088280"/>
+        <c:crossAx val="244748184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,11 +2032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632682392"/>
-        <c:axId val="632711576"/>
+        <c:axId val="566284200"/>
+        <c:axId val="567224008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632682392"/>
+        <c:axId val="566284200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632711576"/>
+        <c:crossAx val="567224008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632711576"/>
+        <c:axId val="567224008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2065,7 +2065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632682392"/>
+        <c:crossAx val="566284200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,12 +2154,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>37.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>18.0</c:v>
                   </c:pt>
@@ -2172,12 +2166,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>37.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>18.0</c:v>
                   </c:pt>
@@ -2208,12 +2196,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1230.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1336.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>879.0</c:v>
                 </c:pt>
@@ -2250,12 +2232,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>15.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
                   </c:pt>
@@ -2268,12 +2244,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>15.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
                   </c:pt>
@@ -2305,10 +2275,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>662.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>649.0</c:v>
+                  <c:v>634.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -2346,12 +2313,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
                   </c:pt>
@@ -2364,12 +2325,6 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>2.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0</c:v>
-                  </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
                   </c:pt>
@@ -2400,12 +2355,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>650.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>645.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>611.0</c:v>
                 </c:pt>
@@ -2424,11 +2373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551125976"/>
-        <c:axId val="630867256"/>
+        <c:axId val="565800840"/>
+        <c:axId val="567291096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="551125976"/>
+        <c:axId val="565800840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="630867256"/>
+        <c:crossAx val="567291096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630867256"/>
+        <c:axId val="567291096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2457,7 +2406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551125976"/>
+        <c:crossAx val="565800840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,11 +2500,8 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>20.0</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.0</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.0</c:v>
@@ -2569,11 +2515,8 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>20.0</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.0</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.0</c:v>
@@ -2605,11 +2548,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>916.0</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>983.0</c:v>
+                  <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>719.0</c:v>
@@ -2648,10 +2588,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.0</c:v>
+                    <c:v>1.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.0</c:v>
+                    <c:v>1.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>5.0</c:v>
@@ -2666,10 +2606,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.0</c:v>
+                    <c:v>1.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.0</c:v>
+                    <c:v>1.57</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>5.0</c:v>
@@ -2702,10 +2642,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>621.0</c:v>
+                  <c:v>584.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>608.0</c:v>
+                  <c:v>588.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>606.0</c:v>
@@ -2747,10 +2687,10 @@
                     <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.0</c:v>
+                    <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>13.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2765,10 +2705,10 @@
                     <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.0</c:v>
+                    <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>13.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2798,10 +2738,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>616.0</c:v>
+                  <c:v>610.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>625.0</c:v>
+                  <c:v>577.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>594.0</c:v>
@@ -2821,11 +2761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390423624"/>
-        <c:axId val="539423304"/>
+        <c:axId val="567104648"/>
+        <c:axId val="568937224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390423624"/>
+        <c:axId val="567104648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539423304"/>
+        <c:crossAx val="568937224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2842,7 +2782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539423304"/>
+        <c:axId val="568937224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2854,7 +2794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390423624"/>
+        <c:crossAx val="567104648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,10 +2884,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>19.9</c:v>
+                    <c:v>1.66</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.3</c:v>
+                    <c:v>2.7</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>11.0</c:v>
@@ -2962,10 +2902,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>19.9</c:v>
+                    <c:v>1.66</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.3</c:v>
+                    <c:v>2.7</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>11.0</c:v>
@@ -2998,10 +2938,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>757.0</c:v>
+                  <c:v>608.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723.0</c:v>
+                  <c:v>623.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>633.0</c:v>
@@ -3040,10 +2980,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.0</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.0</c:v>
+                    <c:v>4.43</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
@@ -3058,10 +2998,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.0</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.0</c:v>
+                    <c:v>4.43</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
@@ -3094,10 +3034,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>585.0</c:v>
+                  <c:v>570.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>585.0</c:v>
+                  <c:v>586.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>600.0</c:v>
@@ -3136,10 +3076,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>17.0</c:v>
+                    <c:v>13.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.5</c:v>
+                    <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>27.0</c:v>
@@ -3154,10 +3094,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>17.0</c:v>
+                    <c:v>13.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.5</c:v>
+                    <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>27.0</c:v>
@@ -3190,10 +3130,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>582.0</c:v>
+                  <c:v>585.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>596.0</c:v>
+                  <c:v>557.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>568.0</c:v>
@@ -3213,11 +3153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404886744"/>
-        <c:axId val="573972920"/>
+        <c:axId val="555528024"/>
+        <c:axId val="567163256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="404886744"/>
+        <c:axId val="555528024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573972920"/>
+        <c:crossAx val="567163256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3234,7 +3174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573972920"/>
+        <c:axId val="567163256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -3246,7 +3186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404886744"/>
+        <c:crossAx val="555528024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3811,8 +3751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4058,29 +3998,14 @@
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55">
-        <v>1230</v>
-      </c>
       <c r="C55">
-        <v>662</v>
-      </c>
-      <c r="D55">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B56">
-        <v>1336</v>
-      </c>
-      <c r="C56">
-        <v>649</v>
-      </c>
-      <c r="D56">
-        <v>645</v>
-      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
@@ -4107,28 +4032,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="B59">
-        <v>37</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60">
-        <v>16</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
     <row r="61" spans="1:4">
       <c r="B61">
         <v>18</v>
@@ -4158,14 +4061,11 @@
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65">
-        <v>916</v>
-      </c>
       <c r="C65">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="D65">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4173,13 +4073,13 @@
         <v>23</v>
       </c>
       <c r="B66">
-        <v>983</v>
+        <v>641</v>
       </c>
       <c r="C66">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="D66">
-        <v>625</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4208,11 +4108,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="B69">
-        <v>20</v>
-      </c>
       <c r="C69">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -4220,13 +4117,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70">
-        <v>14</v>
+        <v>3.36</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>1.57</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4237,7 +4134,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4259,13 +4156,13 @@
         <v>22</v>
       </c>
       <c r="B75">
-        <v>757</v>
+        <v>608</v>
       </c>
       <c r="C75">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D75">
-        <v>582</v>
+        <v>585.79999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4273,13 +4170,13 @@
         <v>23</v>
       </c>
       <c r="B76">
-        <v>723</v>
+        <v>623</v>
       </c>
       <c r="C76">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D76">
-        <v>596</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4309,24 +4206,24 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79">
-        <v>19.899999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4.43</v>
       </c>
       <c r="D80">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -4643,7 +4540,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18560" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="17000" yWindow="100" windowWidth="10420" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -787,11 +787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579240328"/>
-        <c:axId val="566204360"/>
+        <c:axId val="523802136"/>
+        <c:axId val="523823288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579240328"/>
+        <c:axId val="523802136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566204360"/>
+        <c:crossAx val="523823288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566204360"/>
+        <c:axId val="523823288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -879,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579240328"/>
+        <c:crossAx val="523802136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,7 +941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1248,11 +1247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567406744"/>
-        <c:axId val="567405848"/>
+        <c:axId val="523728536"/>
+        <c:axId val="526492856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="567406744"/>
+        <c:axId val="523728536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567405848"/>
+        <c:crossAx val="526492856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567405848"/>
+        <c:axId val="526492856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1281,14 +1280,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567406744"/>
+        <c:crossAx val="523728536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1333,7 +1331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1640,11 +1637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244748184"/>
-        <c:axId val="565746088"/>
+        <c:axId val="523751848"/>
+        <c:axId val="523754840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244748184"/>
+        <c:axId val="523751848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565746088"/>
+        <c:crossAx val="523754840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="565746088"/>
+        <c:axId val="523754840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1673,14 +1670,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244748184"/>
+        <c:crossAx val="523751848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1725,7 +1721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2032,11 +2027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566284200"/>
-        <c:axId val="567224008"/>
+        <c:axId val="523506648"/>
+        <c:axId val="523639848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566284200"/>
+        <c:axId val="523506648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567224008"/>
+        <c:crossAx val="523639848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +2048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567224008"/>
+        <c:axId val="523639848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2065,14 +2060,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566284200"/>
+        <c:crossAx val="523506648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2154,6 +2148,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>32.0</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>18.0</c:v>
                   </c:pt>
@@ -2166,6 +2163,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>32.0</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>18.0</c:v>
                   </c:pt>
@@ -2196,6 +2196,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1166.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900.0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>879.0</c:v>
                 </c:pt>
@@ -2232,6 +2238,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
                   </c:pt>
@@ -2244,6 +2253,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0</c:v>
                   </c:pt>
@@ -2276,6 +2288,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>635.0</c:v>
@@ -2313,6 +2328,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
                   </c:pt>
@@ -2325,6 +2343,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>9.0</c:v>
                   </c:pt>
@@ -2355,6 +2376,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613.0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>611.0</c:v>
                 </c:pt>
@@ -2373,11 +2400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565800840"/>
-        <c:axId val="567291096"/>
+        <c:axId val="526323336"/>
+        <c:axId val="526320536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="565800840"/>
+        <c:axId val="526323336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567291096"/>
+        <c:crossAx val="526320536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567291096"/>
+        <c:axId val="526320536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2406,7 +2433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565800840"/>
+        <c:crossAx val="526323336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,6 +2527,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>3.36</c:v>
                   </c:pt>
@@ -2515,6 +2545,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>3.36</c:v>
                   </c:pt>
@@ -2548,6 +2581,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>671.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>641.0</c:v>
                 </c:pt>
@@ -2684,7 +2720,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.0</c:v>
+                    <c:v>20.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>7.2</c:v>
@@ -2702,7 +2738,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.0</c:v>
+                    <c:v>20.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>7.2</c:v>
@@ -2738,7 +2774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>610.0</c:v>
+                  <c:v>606.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>577.0</c:v>
@@ -2761,11 +2797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567104648"/>
-        <c:axId val="568937224"/>
+        <c:axId val="523605544"/>
+        <c:axId val="523588760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="567104648"/>
+        <c:axId val="523605544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568937224"/>
+        <c:crossAx val="523588760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2782,7 +2818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568937224"/>
+        <c:axId val="523588760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2794,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567104648"/>
+        <c:crossAx val="523605544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3082,7 +3118,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3100,7 +3136,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3136,7 +3172,7 @@
                   <c:v>557.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>568.0</c:v>
+                  <c:v>559.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,11 +3189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555528024"/>
-        <c:axId val="567163256"/>
+        <c:axId val="523416856"/>
+        <c:axId val="523346904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555528024"/>
+        <c:axId val="523416856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567163256"/>
+        <c:crossAx val="523346904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3174,7 +3210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567163256"/>
+        <c:axId val="523346904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -3186,7 +3222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555528024"/>
+        <c:crossAx val="523416856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3998,14 +4034,29 @@
       <c r="A55" t="s">
         <v>22</v>
       </c>
+      <c r="B55">
+        <v>1166</v>
+      </c>
       <c r="C55">
         <v>634</v>
+      </c>
+      <c r="D55">
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>23</v>
       </c>
+      <c r="B56">
+        <v>900</v>
+      </c>
+      <c r="C56">
+        <v>656</v>
+      </c>
+      <c r="D56">
+        <v>613</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
@@ -4032,6 +4083,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60" spans="1:4">
+      <c r="B60">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>3.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:4">
       <c r="B61">
         <v>18</v>
@@ -4061,11 +4123,14 @@
       <c r="A65" t="s">
         <v>22</v>
       </c>
+      <c r="B65">
+        <v>671</v>
+      </c>
       <c r="C65">
         <v>584</v>
       </c>
       <c r="D65">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4108,11 +4173,14 @@
       </c>
     </row>
     <row r="69" spans="1:4">
+      <c r="B69">
+        <v>4</v>
+      </c>
       <c r="C69">
         <v>1.5</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4190,7 +4258,7 @@
         <v>600</v>
       </c>
       <c r="D77">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4234,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:4">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="100" windowWidth="10420" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -314,7 +314,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -475,7 +474,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -636,7 +634,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -787,11 +784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523802136"/>
-        <c:axId val="523823288"/>
+        <c:axId val="390954328"/>
+        <c:axId val="390959480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523802136"/>
+        <c:axId val="390954328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +810,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -830,7 +826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523823288"/>
+        <c:crossAx val="390959480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523823288"/>
+        <c:axId val="390959480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -862,7 +858,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -879,14 +874,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523802136"/>
+        <c:crossAx val="390954328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1247,11 +1241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523728536"/>
-        <c:axId val="526492856"/>
+        <c:axId val="391032968"/>
+        <c:axId val="391036024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523728536"/>
+        <c:axId val="391032968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526492856"/>
+        <c:crossAx val="391036024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1268,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526492856"/>
+        <c:axId val="391036024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1280,7 +1274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523728536"/>
+        <c:crossAx val="391032968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,11 +1631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523751848"/>
-        <c:axId val="523754840"/>
+        <c:axId val="391075816"/>
+        <c:axId val="391078872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523751848"/>
+        <c:axId val="391075816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523754840"/>
+        <c:crossAx val="391078872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523754840"/>
+        <c:axId val="391078872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1670,7 +1664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523751848"/>
+        <c:crossAx val="391075816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,11 +2021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523506648"/>
-        <c:axId val="523639848"/>
+        <c:axId val="411058776"/>
+        <c:axId val="411061832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523506648"/>
+        <c:axId val="411058776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523639848"/>
+        <c:crossAx val="411061832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2048,7 +2042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523639848"/>
+        <c:axId val="411061832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2060,7 +2054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523506648"/>
+        <c:crossAx val="411058776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,7 +2191,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1166.0</c:v>
+                  <c:v>949.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>900.0</c:v>
@@ -2400,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526323336"/>
-        <c:axId val="526320536"/>
+        <c:axId val="411102312"/>
+        <c:axId val="411105368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="526323336"/>
+        <c:axId val="411102312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526320536"/>
+        <c:crossAx val="411105368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526320536"/>
+        <c:axId val="411105368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2433,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526323336"/>
+        <c:crossAx val="411102312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2797,11 +2791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523605544"/>
-        <c:axId val="523588760"/>
+        <c:axId val="411146664"/>
+        <c:axId val="411149720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523605544"/>
+        <c:axId val="411146664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523588760"/>
+        <c:crossAx val="411149720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2818,9 +2812,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523588760"/>
+        <c:axId val="411149720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000.0"/>
           <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2830,7 +2825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523605544"/>
+        <c:crossAx val="411146664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3118,7 +3113,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>23.0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3136,7 +3131,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>23.0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3172,7 +3167,7 @@
                   <c:v>557.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>559.0</c:v>
+                  <c:v>570.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,11 +3184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523416856"/>
-        <c:axId val="523346904"/>
+        <c:axId val="411190424"/>
+        <c:axId val="411193480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523416856"/>
+        <c:axId val="411190424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,7 +3197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523346904"/>
+        <c:crossAx val="411193480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3210,9 +3205,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523346904"/>
+        <c:axId val="411193480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000.0"/>
           <c:min val="500.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3222,7 +3218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523416856"/>
+        <c:crossAx val="411190424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3787,7 +3783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -4035,7 +4031,7 @@
         <v>22</v>
       </c>
       <c r="B55">
-        <v>1166</v>
+        <v>949</v>
       </c>
       <c r="C55">
         <v>634</v>
@@ -4258,7 +4254,7 @@
         <v>600</v>
       </c>
       <c r="D77">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4302,7 +4298,7 @@
         <v>9</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="21220" yWindow="0" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -210,12 +210,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -237,6 +246,10 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -258,6 +271,10 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -314,6 +331,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -474,6 +492,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -634,6 +653,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -784,11 +804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390954328"/>
-        <c:axId val="390959480"/>
+        <c:axId val="482879544"/>
+        <c:axId val="385836056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390954328"/>
+        <c:axId val="482879544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,6 +830,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -826,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390959480"/>
+        <c:crossAx val="385836056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390959480"/>
+        <c:axId val="385836056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -858,6 +879,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -874,13 +896,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390954328"/>
+        <c:crossAx val="482879544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -935,6 +958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1170,7 +1194,7 @@
                     <c:v>4.22</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>9.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1188,7 +1212,7 @@
                     <c:v>4.22</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2</c:v>
+                    <c:v>9.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1224,7 +1248,7 @@
                   <c:v>626.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>611.0</c:v>
+                  <c:v>608.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,11 +1265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391032968"/>
-        <c:axId val="391036024"/>
+        <c:axId val="405893912"/>
+        <c:axId val="464244600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391032968"/>
+        <c:axId val="405893912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391036024"/>
+        <c:crossAx val="464244600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391036024"/>
+        <c:axId val="464244600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1274,13 +1298,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391032968"/>
+        <c:crossAx val="405893912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1325,6 +1350,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1368,7 +1394,7 @@
                     <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1386,7 +1412,7 @@
                     <c:v>24.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1422,7 +1448,7 @@
                   <c:v>754.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>718.6</c:v>
+                  <c:v>721.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1490,7 @@
                     <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.57</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1482,7 +1508,7 @@
                     <c:v>4.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.57</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1560,7 +1586,7 @@
                     <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1578,7 +1604,7 @@
                     <c:v>10.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1614,7 +1640,7 @@
                   <c:v>621.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>594.0</c:v>
+                  <c:v>588.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391075816"/>
-        <c:axId val="391078872"/>
+        <c:axId val="482999208"/>
+        <c:axId val="482896184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391075816"/>
+        <c:axId val="482999208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391078872"/>
+        <c:crossAx val="482896184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391078872"/>
+        <c:axId val="482896184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1664,13 +1690,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391075816"/>
+        <c:crossAx val="482999208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1715,6 +1742,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1758,7 +1786,7 @@
                     <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.0</c:v>
+                    <c:v>12.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1776,7 +1804,7 @@
                     <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.0</c:v>
+                    <c:v>12.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1812,7 +1840,7 @@
                   <c:v>651.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.0</c:v>
+                  <c:v>643.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1882,7 @@
                     <c:v>5.5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4</c:v>
+                    <c:v>9.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1872,7 +1900,7 @@
                     <c:v>5.5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4</c:v>
+                    <c:v>9.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1950,7 +1978,7 @@
                     <c:v>7.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1968,7 +1996,7 @@
                     <c:v>7.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>27.0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2004,7 +2032,7 @@
                   <c:v>601.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>568.0</c:v>
+                  <c:v>570.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,11 +2049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411058776"/>
-        <c:axId val="411061832"/>
+        <c:axId val="467859048"/>
+        <c:axId val="482508216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411058776"/>
+        <c:axId val="467859048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411061832"/>
+        <c:crossAx val="482508216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2042,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411061832"/>
+        <c:axId val="482508216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2054,13 +2082,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411058776"/>
+        <c:crossAx val="467859048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2142,6 +2171,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.0</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>32.0</c:v>
                   </c:pt>
@@ -2157,6 +2189,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.0</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>32.0</c:v>
                   </c:pt>
@@ -2191,7 +2226,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>949.0</c:v>
+                  <c:v>931.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>900.0</c:v>
@@ -2232,6 +2267,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.5</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>5.0</c:v>
                   </c:pt>
@@ -2247,6 +2285,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.5</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>5.0</c:v>
                   </c:pt>
@@ -2281,7 +2322,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>634.0</c:v>
+                  <c:v>638.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>656.0</c:v>
@@ -2322,6 +2363,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.51</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>3.5</c:v>
                   </c:pt>
@@ -2337,6 +2381,9 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.51</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>3.5</c:v>
                   </c:pt>
@@ -2377,7 +2424,7 @@
                   <c:v>613.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>611.0</c:v>
+                  <c:v>608.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411102312"/>
-        <c:axId val="411105368"/>
+        <c:axId val="467008872"/>
+        <c:axId val="524803176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411102312"/>
+        <c:axId val="467008872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411105368"/>
+        <c:crossAx val="524803176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2415,7 +2462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411105368"/>
+        <c:axId val="524803176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2427,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411102312"/>
+        <c:crossAx val="467008872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,7 +2575,7 @@
                     <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2546,7 +2593,7 @@
                     <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.0</c:v>
+                    <c:v>5.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2582,7 +2629,7 @@
                   <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>719.0</c:v>
+                  <c:v>721.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2767,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.0</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2738,7 +2785,7 @@
                     <c:v>7.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.0</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2774,7 +2821,7 @@
                   <c:v>577.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>594.0</c:v>
+                  <c:v>588.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,11 +2838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411146664"/>
-        <c:axId val="411149720"/>
+        <c:axId val="467358824"/>
+        <c:axId val="524821352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411146664"/>
+        <c:axId val="467358824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411149720"/>
+        <c:crossAx val="524821352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411149720"/>
+        <c:axId val="524821352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -2825,7 +2872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411146664"/>
+        <c:crossAx val="467358824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,7 +2968,7 @@
                     <c:v>2.7</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>12.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2939,7 +2986,7 @@
                     <c:v>2.7</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.0</c:v>
+                    <c:v>12.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2975,7 +3022,7 @@
                   <c:v>623.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.0</c:v>
+                  <c:v>643.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3154,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>13.2</c:v>
+                    <c:v>6.75</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>7.2</c:v>
@@ -3125,7 +3172,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>13.2</c:v>
+                    <c:v>6.75</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>7.2</c:v>
@@ -3161,7 +3208,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>585.8</c:v>
+                  <c:v>583.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>557.0</c:v>
@@ -3184,11 +3231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411190424"/>
-        <c:axId val="411193480"/>
+        <c:axId val="482515288"/>
+        <c:axId val="468121784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411190424"/>
+        <c:axId val="482515288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411193480"/>
+        <c:crossAx val="468121784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411193480"/>
+        <c:axId val="468121784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3218,7 +3265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411190424"/>
+        <c:crossAx val="482515288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3783,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4031,10 +4078,10 @@
         <v>22</v>
       </c>
       <c r="B55">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="C55">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D55">
         <v>616</v>
@@ -4064,8 +4111,8 @@
       <c r="C57">
         <v>635</v>
       </c>
-      <c r="D57">
-        <v>611</v>
+      <c r="D57" s="2">
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4079,6 +4126,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="59" spans="1:4">
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>8.5</v>
+      </c>
+      <c r="D59">
+        <v>7.51</v>
+      </c>
+    </row>
     <row r="60" spans="1:4">
       <c r="B60">
         <v>32</v>
@@ -4148,13 +4206,13 @@
         <v>15</v>
       </c>
       <c r="B67">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C67">
         <v>606</v>
       </c>
       <c r="D67">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4192,13 +4250,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4226,7 +4284,7 @@
         <v>570</v>
       </c>
       <c r="D75">
-        <v>585.79999999999995</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4248,7 +4306,7 @@
         <v>15</v>
       </c>
       <c r="B77">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C77">
         <v>600</v>
@@ -4276,7 +4334,7 @@
         <v>0.8</v>
       </c>
       <c r="D79">
-        <v>13.2</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4292,7 +4350,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -4354,7 +4412,7 @@
         <v>635</v>
       </c>
       <c r="D118">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4398,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4448,13 +4506,13 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>718.6</v>
+        <v>721</v>
       </c>
       <c r="C128">
         <v>606</v>
       </c>
       <c r="D128">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4492,13 +4550,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="B132">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="C132">
-        <v>4.57</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4548,13 +4606,13 @@
         <v>15</v>
       </c>
       <c r="B137">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C137">
         <v>600</v>
       </c>
       <c r="D137">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4592,18 +4650,19 @@
     </row>
     <row r="141" spans="1:4">
       <c r="B141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="D141">
-        <v>27</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="0" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -804,11 +804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482879544"/>
-        <c:axId val="385836056"/>
+        <c:axId val="444894344"/>
+        <c:axId val="529233800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="482879544"/>
+        <c:axId val="444894344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385836056"/>
+        <c:crossAx val="529233800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385836056"/>
+        <c:axId val="529233800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -896,7 +896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482879544"/>
+        <c:crossAx val="444894344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,11 +1265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405893912"/>
-        <c:axId val="464244600"/>
+        <c:axId val="434375176"/>
+        <c:axId val="427155608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="405893912"/>
+        <c:axId val="434375176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464244600"/>
+        <c:crossAx val="427155608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1286,7 +1286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464244600"/>
+        <c:axId val="427155608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1298,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405893912"/>
+        <c:crossAx val="434375176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482999208"/>
-        <c:axId val="482896184"/>
+        <c:axId val="431825896"/>
+        <c:axId val="431828952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="482999208"/>
+        <c:axId val="431825896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482896184"/>
+        <c:crossAx val="431828952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482896184"/>
+        <c:axId val="431828952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1690,7 +1690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482999208"/>
+        <c:crossAx val="431825896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2049,11 +2049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467859048"/>
-        <c:axId val="482508216"/>
+        <c:axId val="426867576"/>
+        <c:axId val="426487320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467859048"/>
+        <c:axId val="426867576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482508216"/>
+        <c:crossAx val="426487320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482508216"/>
+        <c:axId val="426487320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2082,7 +2082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467859048"/>
+        <c:crossAx val="426867576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2175,10 +2175,10 @@
                     <c:v>16.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.0</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.0</c:v>
+                    <c:v>22.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2193,10 +2193,10 @@
                     <c:v>16.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.0</c:v>
+                    <c:v>18.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.0</c:v>
+                    <c:v>22.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2229,10 +2229,10 @@
                   <c:v>931.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900.0</c:v>
+                  <c:v>988.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.0</c:v>
+                  <c:v>1017.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,7 +2328,7 @@
                   <c:v>656.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.0</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467008872"/>
-        <c:axId val="524803176"/>
+        <c:axId val="434490040"/>
+        <c:axId val="434493096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467008872"/>
+        <c:axId val="434490040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524803176"/>
+        <c:crossAx val="434493096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2462,7 +2462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524803176"/>
+        <c:axId val="434493096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2474,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467008872"/>
+        <c:crossAx val="434490040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2572,7 +2572,7 @@
                     <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.36</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>5.0</c:v>
@@ -2590,7 +2590,7 @@
                     <c:v>4.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.36</c:v>
+                    <c:v>8.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>5.0</c:v>
@@ -2626,7 +2626,7 @@
                   <c:v>671.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.0</c:v>
+                  <c:v>691.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>721.0</c:v>
@@ -2838,11 +2838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467358824"/>
-        <c:axId val="524821352"/>
+        <c:axId val="434259208"/>
+        <c:axId val="434262264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467358824"/>
+        <c:axId val="434259208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524821352"/>
+        <c:crossAx val="434262264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524821352"/>
+        <c:axId val="434262264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -2872,7 +2872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467358824"/>
+        <c:crossAx val="434259208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3231,11 +3231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482515288"/>
-        <c:axId val="468121784"/>
+        <c:axId val="444721336"/>
+        <c:axId val="444724104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="482515288"/>
+        <c:axId val="444721336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468121784"/>
+        <c:crossAx val="444724104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3252,7 +3252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468121784"/>
+        <c:axId val="444724104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3265,7 +3265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482515288"/>
+        <c:crossAx val="444721336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3830,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4092,7 +4092,7 @@
         <v>23</v>
       </c>
       <c r="B56">
-        <v>900</v>
+        <v>988</v>
       </c>
       <c r="C56">
         <v>656</v>
@@ -4106,10 +4106,10 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>879</v>
+        <v>1017.6</v>
       </c>
       <c r="C57">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="D57" s="2">
         <v>608</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="B60">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="B61">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4192,7 +4192,7 @@
         <v>23</v>
       </c>
       <c r="B66">
-        <v>641</v>
+        <v>691</v>
       </c>
       <c r="C66">
         <v>588</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70">
-        <v>3.36</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>1.57</v>
@@ -4662,7 +4662,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -492,7 +491,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -653,7 +651,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -804,11 +801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444894344"/>
-        <c:axId val="529233800"/>
+        <c:axId val="429258744"/>
+        <c:axId val="414334232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444894344"/>
+        <c:axId val="429258744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +827,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -847,7 +843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529233800"/>
+        <c:crossAx val="414334232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529233800"/>
+        <c:axId val="414334232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -879,7 +875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -896,14 +891,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444894344"/>
+        <c:crossAx val="429258744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -915,6 +909,339 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Decentralized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$59:$D$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.51</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$59:$D$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.51</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$55:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>608.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$69:$D$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>20.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$69:$D$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>20.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$65:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$79:$D$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.75</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$D$79:$D$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.75</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$D$75:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429446872"/>
+        <c:axId val="444542200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429446872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444542200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444542200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="429446872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -958,7 +1285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -972,7 +1298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$115</c:f>
+              <c:f>'Andre Rework'!$B$146</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -991,7 +1317,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$120:$B$122</c:f>
+                <c:f>'Andre Rework'!$B$151:$B$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1009,7 +1335,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$120:$B$122</c:f>
+                <c:f>'Andre Rework'!$B$151:$B$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1028,7 +1354,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
+              <c:f>'Andre Rework'!$A$147:$A$149</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1045,7 +1371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$116:$B$118</c:f>
+              <c:f>'Andre Rework'!$B$147:$B$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1068,7 +1394,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$115</c:f>
+              <c:f>'Andre Rework'!$C$146</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,7 +1413,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$120:$C$122</c:f>
+                <c:f>'Andre Rework'!$C$151:$C$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1105,7 +1431,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$120:$C$122</c:f>
+                <c:f>'Andre Rework'!$C$151:$C$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1124,7 +1450,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
+              <c:f>'Andre Rework'!$A$147:$A$149</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1141,7 +1467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$116:$C$118</c:f>
+              <c:f>'Andre Rework'!$C$147:$C$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1164,7 +1490,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$115</c:f>
+              <c:f>'Andre Rework'!$D$146</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1509,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$120:$D$122</c:f>
+                <c:f>'Andre Rework'!$D$151:$D$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1201,7 +1527,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$120:$D$122</c:f>
+                <c:f>'Andre Rework'!$D$151:$D$153</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1220,7 +1546,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$116:$A$118</c:f>
+              <c:f>'Andre Rework'!$A$147:$A$149</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1237,7 +1563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$116:$D$118</c:f>
+              <c:f>'Andre Rework'!$D$147:$D$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1265,11 +1591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434375176"/>
-        <c:axId val="427155608"/>
+        <c:axId val="429442856"/>
+        <c:axId val="547973720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434375176"/>
+        <c:axId val="429442856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427155608"/>
+        <c:crossAx val="547973720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1286,7 +1612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427155608"/>
+        <c:axId val="547973720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1298,14 +1624,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434375176"/>
+        <c:crossAx val="429442856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1350,7 +1675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1364,7 +1688,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$125</c:f>
+              <c:f>'Andre Rework'!$B$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1383,7 +1707,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$130:$B$132</c:f>
+                <c:f>'Andre Rework'!$B$161:$B$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1401,7 +1725,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$130:$B$132</c:f>
+                <c:f>'Andre Rework'!$B$161:$B$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1420,7 +1744,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
+              <c:f>'Andre Rework'!$A$157:$A$159</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1437,7 +1761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$126:$B$128</c:f>
+              <c:f>'Andre Rework'!$B$157:$B$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1460,7 +1784,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$125</c:f>
+              <c:f>'Andre Rework'!$C$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,7 +1803,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$130:$C$132</c:f>
+                <c:f>'Andre Rework'!$C$161:$C$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1497,7 +1821,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$130:$C$132</c:f>
+                <c:f>'Andre Rework'!$C$161:$C$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1516,7 +1840,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
+              <c:f>'Andre Rework'!$A$157:$A$159</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1533,7 +1857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$126:$C$128</c:f>
+              <c:f>'Andre Rework'!$C$157:$C$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1556,7 +1880,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$125</c:f>
+              <c:f>'Andre Rework'!$D$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1575,7 +1899,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$130:$D$132</c:f>
+                <c:f>'Andre Rework'!$D$161:$D$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1593,7 +1917,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$130:$D$132</c:f>
+                <c:f>'Andre Rework'!$D$161:$D$163</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1612,7 +1936,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$126:$A$128</c:f>
+              <c:f>'Andre Rework'!$A$157:$A$159</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1629,7 +1953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$126:$D$128</c:f>
+              <c:f>'Andre Rework'!$D$157:$D$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1657,11 +1981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431825896"/>
-        <c:axId val="431828952"/>
+        <c:axId val="419781816"/>
+        <c:axId val="393163448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431825896"/>
+        <c:axId val="419781816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431828952"/>
+        <c:crossAx val="393163448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431828952"/>
+        <c:axId val="393163448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1690,14 +2014,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431825896"/>
+        <c:crossAx val="419781816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1742,7 +2065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1756,7 +2078,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$B$134</c:f>
+              <c:f>'Andre Rework'!$B$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1775,7 +2097,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$139:$B$141</c:f>
+                <c:f>'Andre Rework'!$B$170:$B$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1793,7 +2115,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$B$139:$B$141</c:f>
+                <c:f>'Andre Rework'!$B$170:$B$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1812,7 +2134,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
+              <c:f>'Andre Rework'!$A$166:$A$168</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1829,7 +2151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$B$135:$B$137</c:f>
+              <c:f>'Andre Rework'!$B$166:$B$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1852,7 +2174,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$C$134</c:f>
+              <c:f>'Andre Rework'!$C$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1871,7 +2193,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$139:$C$141</c:f>
+                <c:f>'Andre Rework'!$C$170:$C$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1889,7 +2211,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$C$139:$C$141</c:f>
+                <c:f>'Andre Rework'!$C$170:$C$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1908,7 +2230,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
+              <c:f>'Andre Rework'!$A$166:$A$168</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1925,7 +2247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$C$135:$C$137</c:f>
+              <c:f>'Andre Rework'!$C$166:$C$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1948,7 +2270,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Andre Rework'!$D$134</c:f>
+              <c:f>'Andre Rework'!$D$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1967,7 +2289,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$139:$D$141</c:f>
+                <c:f>'Andre Rework'!$D$170:$D$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1985,7 +2307,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Andre Rework'!$D$139:$D$141</c:f>
+                <c:f>'Andre Rework'!$D$170:$D$172</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2004,7 +2326,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Andre Rework'!$A$135:$A$137</c:f>
+              <c:f>'Andre Rework'!$A$166:$A$168</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2021,7 +2343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Andre Rework'!$D$135:$D$137</c:f>
+              <c:f>'Andre Rework'!$D$166:$D$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2049,11 +2371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426867576"/>
-        <c:axId val="426487320"/>
+        <c:axId val="430039992"/>
+        <c:axId val="429067992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426867576"/>
+        <c:axId val="430039992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426487320"/>
+        <c:crossAx val="429067992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426487320"/>
+        <c:axId val="429067992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2082,14 +2404,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426867576"/>
+        <c:crossAx val="430039992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2134,7 +2455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2441,11 +2761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434490040"/>
-        <c:axId val="434493096"/>
+        <c:axId val="420513864"/>
+        <c:axId val="420226104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434490040"/>
+        <c:axId val="420513864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434493096"/>
+        <c:crossAx val="420226104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2462,7 +2782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434493096"/>
+        <c:axId val="420226104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2474,14 +2794,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434490040"/>
+        <c:crossAx val="420513864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2531,7 +2850,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2838,11 +3156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434259208"/>
-        <c:axId val="434262264"/>
+        <c:axId val="430862504"/>
+        <c:axId val="430371736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434259208"/>
+        <c:axId val="430862504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +3169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434262264"/>
+        <c:crossAx val="430371736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434262264"/>
+        <c:axId val="430371736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -2872,14 +3190,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434259208"/>
+        <c:crossAx val="430862504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3231,11 +3548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444721336"/>
-        <c:axId val="444724104"/>
+        <c:axId val="419791032"/>
+        <c:axId val="414188488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444721336"/>
+        <c:axId val="419791032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444724104"/>
+        <c:crossAx val="414188488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3252,7 +3569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444724104"/>
+        <c:axId val="414188488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3265,7 +3582,674 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444721336"/>
+        <c:crossAx val="419791032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Centralized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$59:$C$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$59:$C$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$55:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>638.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>652.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$69:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.57</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$69:$C$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.57</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$65:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>584.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>606.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$79:$C$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.43</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$C$79:$C$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.43</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$C$75:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="443697464"/>
+        <c:axId val="443721064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="443697464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443721064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443721064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443697464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Synchronous</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$59:$B$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$59:$B$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Andre Rework'!$A$55:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2M/4BJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4M/4BJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$55:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1017.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$69:$B$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$69:$B$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$65:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>671.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>721.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 replicas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$79:$B$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Andre Rework'!$B$79:$B$81</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.66</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Andre Rework'!$B$75:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>643.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="414257992"/>
+        <c:axId val="430596744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414257992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="430596744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430596744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414257992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3323,13 +4307,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3353,13 +4337,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3383,13 +4367,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3500,6 +4484,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3828,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4359,303 +5433,303 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>17</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B146" t="s">
         <v>19</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C146" t="s">
         <v>1</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D146" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>20</v>
       </c>
-      <c r="B116">
+      <c r="B147">
         <v>1023</v>
       </c>
-      <c r="C116">
+      <c r="C147">
         <v>804</v>
       </c>
-      <c r="D116">
+      <c r="D147">
         <v>641</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
         <v>21</v>
       </c>
-      <c r="B117">
+      <c r="B148">
         <v>865</v>
       </c>
-      <c r="C117">
+      <c r="C148">
         <v>724</v>
       </c>
-      <c r="D117">
+      <c r="D148">
         <v>626</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
         <v>15</v>
       </c>
-      <c r="B118">
+      <c r="B149">
         <v>879</v>
       </c>
-      <c r="C118">
+      <c r="C149">
         <v>635</v>
       </c>
-      <c r="D118">
+      <c r="D149">
         <v>608</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="B119" t="s">
+    <row r="150" spans="1:4">
+      <c r="B150" t="s">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C150" t="s">
         <v>3</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="B120">
+    <row r="151" spans="1:4">
+      <c r="B151">
         <v>34</v>
       </c>
-      <c r="C120">
+      <c r="C151">
         <v>13.4</v>
       </c>
-      <c r="D120">
+      <c r="D151">
         <v>2.4</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="B121">
+    <row r="152" spans="1:4">
+      <c r="B152">
         <v>10.199999999999999</v>
       </c>
-      <c r="C121">
+      <c r="C152">
         <v>27</v>
       </c>
-      <c r="D121">
+      <c r="D152">
         <v>4.22</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="B122">
+    <row r="153" spans="1:4">
+      <c r="B153">
         <v>18</v>
       </c>
-      <c r="C122">
+      <c r="C153">
         <v>2</v>
       </c>
-      <c r="D122">
+      <c r="D153">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
         <v>9</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B156" t="s">
         <v>19</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C156" t="s">
         <v>1</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D156" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
         <v>20</v>
       </c>
-      <c r="B126">
+      <c r="B157">
         <v>802</v>
       </c>
-      <c r="C126">
+      <c r="C157">
         <v>701</v>
       </c>
-      <c r="D126">
+      <c r="D157">
         <v>622</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
         <v>21</v>
       </c>
-      <c r="B127">
+      <c r="B158">
         <v>754</v>
       </c>
-      <c r="C127">
+      <c r="C158">
         <v>652</v>
       </c>
-      <c r="D127">
+      <c r="D158">
         <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
         <v>15</v>
       </c>
-      <c r="B128">
+      <c r="B159">
         <v>721</v>
       </c>
-      <c r="C128">
+      <c r="C159">
         <v>606</v>
       </c>
-      <c r="D128">
+      <c r="D159">
         <v>588</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="B129" t="s">
+    <row r="160" spans="1:4">
+      <c r="B160" t="s">
         <v>3</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C160" t="s">
         <v>3</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="B130">
+    <row r="161" spans="1:4">
+      <c r="B161">
         <v>17</v>
       </c>
-      <c r="C130">
+      <c r="C161">
         <v>16</v>
       </c>
-      <c r="D130">
+      <c r="D161">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="B131">
+    <row r="162" spans="1:4">
+      <c r="B162">
         <v>24</v>
       </c>
-      <c r="C131">
+      <c r="C162">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D131">
+      <c r="D162">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="B132">
+    <row r="163" spans="1:4">
+      <c r="B163">
         <v>5</v>
       </c>
-      <c r="C132">
+      <c r="C163">
         <v>5</v>
       </c>
-      <c r="D132">
+      <c r="D163">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
         <v>16</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B165" t="s">
         <v>19</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C165" t="s">
         <v>1</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D165" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B135">
+      <c r="B166">
         <v>685</v>
       </c>
-      <c r="C135">
+      <c r="C166">
         <v>630</v>
       </c>
-      <c r="D135">
+      <c r="D166">
         <v>609</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
         <v>21</v>
       </c>
-      <c r="B136">
+      <c r="B167">
         <v>651</v>
       </c>
-      <c r="C136">
+      <c r="C167">
         <v>632</v>
       </c>
-      <c r="D136">
+      <c r="D167">
         <v>601</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
         <v>15</v>
       </c>
-      <c r="B137">
+      <c r="B168">
         <v>643</v>
       </c>
-      <c r="C137">
+      <c r="C168">
         <v>600</v>
       </c>
-      <c r="D137">
+      <c r="D168">
         <v>570</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="B138" t="s">
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
         <v>3</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C169" t="s">
         <v>3</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D169" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="B139">
+    <row r="170" spans="1:4">
+      <c r="B170">
         <v>11.2</v>
       </c>
-      <c r="C139">
+      <c r="C170">
         <v>3.23</v>
       </c>
-      <c r="D139">
+      <c r="D170">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="B140">
+    <row r="171" spans="1:4">
+      <c r="B171">
         <v>3.13</v>
       </c>
-      <c r="C140">
+      <c r="C171">
         <v>5.5</v>
       </c>
-      <c r="D140">
+      <c r="D171">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="B141">
+    <row r="172" spans="1:4">
+      <c r="B172">
         <v>12</v>
       </c>
-      <c r="C141">
+      <c r="C172">
         <v>9</v>
       </c>
-      <c r="D141">
+      <c r="D172">
         <v>3.5</v>
       </c>
     </row>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -320,30 +320,6 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:bevel/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -485,25 +461,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -645,25 +602,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -801,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429258744"/>
-        <c:axId val="414334232"/>
+        <c:axId val="429115896"/>
+        <c:axId val="421413560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429258744"/>
+        <c:axId val="429115896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,6 +765,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -843,7 +782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414334232"/>
+        <c:crossAx val="421413560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,10 +790,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414334232"/>
+        <c:axId val="421413560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -875,6 +814,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -891,13 +831,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429258744"/>
+        <c:crossAx val="429115896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1201,11 +1142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429446872"/>
-        <c:axId val="444542200"/>
+        <c:axId val="430501208"/>
+        <c:axId val="444897032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429446872"/>
+        <c:axId val="430501208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444542200"/>
+        <c:crossAx val="444897032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,9 +1163,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444542200"/>
+        <c:axId val="444897032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1233,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429446872"/>
+        <c:crossAx val="430501208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,6 +1227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1591,11 +1534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429442856"/>
-        <c:axId val="547973720"/>
+        <c:axId val="414303816"/>
+        <c:axId val="443822072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429442856"/>
+        <c:axId val="414303816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547973720"/>
+        <c:crossAx val="443822072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547973720"/>
+        <c:axId val="443822072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1624,13 +1567,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429442856"/>
+        <c:crossAx val="414303816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1675,6 +1619,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1981,11 +1926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419781816"/>
-        <c:axId val="393163448"/>
+        <c:axId val="430947496"/>
+        <c:axId val="450165352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419781816"/>
+        <c:axId val="430947496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393163448"/>
+        <c:crossAx val="450165352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393163448"/>
+        <c:axId val="450165352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2014,13 +1959,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419781816"/>
+        <c:crossAx val="430947496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2065,6 +2011,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2371,11 +2318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430039992"/>
-        <c:axId val="429067992"/>
+        <c:axId val="434917496"/>
+        <c:axId val="462345192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430039992"/>
+        <c:axId val="434917496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429067992"/>
+        <c:crossAx val="462345192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2392,7 +2339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429067992"/>
+        <c:axId val="462345192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2404,13 +2351,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430039992"/>
+        <c:crossAx val="434917496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2455,6 +2403,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2761,11 +2710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420513864"/>
-        <c:axId val="420226104"/>
+        <c:axId val="414530296"/>
+        <c:axId val="445150536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420513864"/>
+        <c:axId val="414530296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420226104"/>
+        <c:crossAx val="445150536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2782,10 +2731,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420226104"/>
+        <c:axId val="445150536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2794,13 +2743,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420513864"/>
+        <c:crossAx val="414530296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2850,6 +2800,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3156,11 +3107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430862504"/>
-        <c:axId val="430371736"/>
+        <c:axId val="429108616"/>
+        <c:axId val="451824200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430862504"/>
+        <c:axId val="429108616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430371736"/>
+        <c:crossAx val="451824200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,11 +3128,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430371736"/>
+        <c:axId val="451824200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
-          <c:min val="500.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3190,13 +3141,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430862504"/>
+        <c:crossAx val="429108616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3548,11 +3500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419791032"/>
-        <c:axId val="414188488"/>
+        <c:axId val="430243960"/>
+        <c:axId val="463379064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419791032"/>
+        <c:axId val="430243960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3561,7 +3513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414188488"/>
+        <c:crossAx val="463379064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3569,11 +3521,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414188488"/>
+        <c:axId val="463379064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
-          <c:min val="500.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3582,7 +3534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419791032"/>
+        <c:crossAx val="430243960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3883,11 +3835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443697464"/>
-        <c:axId val="443721064"/>
+        <c:axId val="443913016"/>
+        <c:axId val="444892360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443697464"/>
+        <c:axId val="443913016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443721064"/>
+        <c:crossAx val="444892360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3904,9 +3856,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443721064"/>
+        <c:axId val="444892360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3915,7 +3868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443697464"/>
+        <c:crossAx val="443913016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4216,11 +4169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414257992"/>
-        <c:axId val="430596744"/>
+        <c:axId val="429169656"/>
+        <c:axId val="414383288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414257992"/>
+        <c:axId val="429169656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,7 +4182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430596744"/>
+        <c:crossAx val="414383288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4237,10 +4190,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430596744"/>
+        <c:axId val="414383288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4249,7 +4202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414257992"/>
+        <c:crossAx val="429169656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4498,9 +4451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4527,10 +4480,10 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4552,15 +4505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4904,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="-820" yWindow="140" windowWidth="15220" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -341,13 +341,13 @@
                     <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>34.0</c:v>
+                    <c:v>19.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>52.0</c:v>
+                    <c:v>41.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>50.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>50.0</c:v>
@@ -371,13 +371,13 @@
                     <c:v>17.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>34.0</c:v>
+                    <c:v>19.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>52.0</c:v>
+                    <c:v>41.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>50.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>50.0</c:v>
@@ -431,10 +431,10 @@
                   <c:v>802.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1023.0</c:v>
+                  <c:v>1008.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1389.0</c:v>
+                  <c:v>1403.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1949.0</c:v>
@@ -482,10 +482,10 @@
                     <c:v>16.36</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.4</c:v>
+                    <c:v>15.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>19.2</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>50.0</c:v>
@@ -512,10 +512,10 @@
                     <c:v>16.36</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.4</c:v>
+                    <c:v>15.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>19.2</c:v>
+                    <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>50.0</c:v>
@@ -572,10 +572,10 @@
                   <c:v>701.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>804.0</c:v>
+                  <c:v>816.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1097.0</c:v>
+                  <c:v>1127.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1393.0</c:v>
@@ -623,10 +623,10 @@
                     <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.4</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.72</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>8.5</c:v>
@@ -653,10 +653,10 @@
                     <c:v>23.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.4</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.72</c:v>
+                    <c:v>2.0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>8.5</c:v>
@@ -713,10 +713,10 @@
                   <c:v>622.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>641.0</c:v>
+                  <c:v>642.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>659.0</c:v>
+                  <c:v>660.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>717.0</c:v>
@@ -739,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429115896"/>
-        <c:axId val="421413560"/>
+        <c:axId val="492085880"/>
+        <c:axId val="492091496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429115896"/>
+        <c:axId val="492085880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421413560"/>
+        <c:crossAx val="492091496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421413560"/>
+        <c:axId val="492091496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429115896"/>
+        <c:crossAx val="492085880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,11 +1142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430501208"/>
-        <c:axId val="444897032"/>
+        <c:axId val="468455384"/>
+        <c:axId val="468409016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430501208"/>
+        <c:axId val="468455384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444897032"/>
+        <c:crossAx val="468409016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444897032"/>
+        <c:axId val="468409016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1175,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430501208"/>
+        <c:crossAx val="468455384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414303816"/>
-        <c:axId val="443822072"/>
+        <c:axId val="464658728"/>
+        <c:axId val="481256312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414303816"/>
+        <c:axId val="464658728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443822072"/>
+        <c:crossAx val="481256312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443822072"/>
+        <c:axId val="481256312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1567,7 +1567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414303816"/>
+        <c:crossAx val="464658728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,7 +1619,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1926,11 +1925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430947496"/>
-        <c:axId val="450165352"/>
+        <c:axId val="428489832"/>
+        <c:axId val="467242536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430947496"/>
+        <c:axId val="428489832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450165352"/>
+        <c:crossAx val="467242536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450165352"/>
+        <c:axId val="467242536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1959,14 +1958,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430947496"/>
+        <c:crossAx val="428489832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2011,7 +2009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2318,11 +2315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434917496"/>
-        <c:axId val="462345192"/>
+        <c:axId val="463696200"/>
+        <c:axId val="515619784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434917496"/>
+        <c:axId val="463696200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462345192"/>
+        <c:crossAx val="515619784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2339,7 +2336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462345192"/>
+        <c:axId val="515619784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2351,14 +2348,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434917496"/>
+        <c:crossAx val="463696200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2710,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414530296"/>
-        <c:axId val="445150536"/>
+        <c:axId val="468132120"/>
+        <c:axId val="425787464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414530296"/>
+        <c:axId val="468132120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445150536"/>
+        <c:crossAx val="425787464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445150536"/>
+        <c:axId val="425787464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2743,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414530296"/>
+        <c:crossAx val="468132120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3107,11 +3103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429108616"/>
-        <c:axId val="451824200"/>
+        <c:axId val="479089832"/>
+        <c:axId val="433613624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429108616"/>
+        <c:axId val="479089832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,7 +3116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451824200"/>
+        <c:crossAx val="433613624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3128,7 +3124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451824200"/>
+        <c:axId val="433613624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3141,7 +3137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429108616"/>
+        <c:crossAx val="479089832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3500,11 +3496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430243960"/>
-        <c:axId val="463379064"/>
+        <c:axId val="492171448"/>
+        <c:axId val="468100584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430243960"/>
+        <c:axId val="492171448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,7 +3509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463379064"/>
+        <c:crossAx val="468100584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3521,7 +3517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463379064"/>
+        <c:axId val="468100584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3534,7 +3530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430243960"/>
+        <c:crossAx val="492171448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3835,11 +3831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443913016"/>
-        <c:axId val="444892360"/>
+        <c:axId val="421747416"/>
+        <c:axId val="491872760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443913016"/>
+        <c:axId val="421747416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444892360"/>
+        <c:crossAx val="491872760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3856,7 +3852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444892360"/>
+        <c:axId val="491872760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3868,7 +3864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443913016"/>
+        <c:crossAx val="421747416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4169,11 +4165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429169656"/>
-        <c:axId val="414383288"/>
+        <c:axId val="433585944"/>
+        <c:axId val="468328136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429169656"/>
+        <c:axId val="433585944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414383288"/>
+        <c:crossAx val="468328136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4190,7 +4186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414383288"/>
+        <c:axId val="468328136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4202,7 +4198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429169656"/>
+        <c:crossAx val="433585944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4857,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4910,10 +4906,10 @@
         <v>802</v>
       </c>
       <c r="E3">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F3">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="G3">
         <f>2845-896</f>
@@ -4937,10 +4933,10 @@
         <v>701.83</v>
       </c>
       <c r="E4">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="F4">
-        <v>1097</v>
+        <v>1127</v>
       </c>
       <c r="G4">
         <v>1393</v>
@@ -4963,10 +4959,10 @@
         <v>622</v>
       </c>
       <c r="E5">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F5">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G5">
         <v>717</v>
@@ -5017,13 +5013,13 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -5043,10 +5039,10 @@
         <v>16.36</v>
       </c>
       <c r="E11">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>19.2</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -5069,10 +5065,10 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.72</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>8.5</v>

--- a/papers/async-re/data/Refined_data_AL.xlsx
+++ b/papers/async-re/data/Refined_data_AL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="140" windowWidth="15220" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Andre Rework" sheetId="2" r:id="rId1"/>
@@ -320,6 +320,15 @@
             <c:symbol val="diamond"/>
             <c:size val="7"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -461,6 +470,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -602,6 +620,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -739,11 +766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492085880"/>
-        <c:axId val="492091496"/>
+        <c:axId val="385785192"/>
+        <c:axId val="385792200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="492085880"/>
+        <c:axId val="385785192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492091496"/>
+        <c:crossAx val="385792200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492091496"/>
+        <c:axId val="385792200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -831,7 +858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492085880"/>
+        <c:crossAx val="385785192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,11 +1169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468455384"/>
-        <c:axId val="468409016"/>
+        <c:axId val="406147992"/>
+        <c:axId val="406151048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468455384"/>
+        <c:axId val="406147992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468409016"/>
+        <c:crossAx val="406151048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468409016"/>
+        <c:axId val="406151048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1175,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468455384"/>
+        <c:crossAx val="406147992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464658728"/>
-        <c:axId val="481256312"/>
+        <c:axId val="405807640"/>
+        <c:axId val="405810696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464658728"/>
+        <c:axId val="405807640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481256312"/>
+        <c:crossAx val="405810696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481256312"/>
+        <c:axId val="405810696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1567,7 +1594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464658728"/>
+        <c:crossAx val="405807640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,6 +1646,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1925,11 +1953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428489832"/>
-        <c:axId val="467242536"/>
+        <c:axId val="405850712"/>
+        <c:axId val="405853768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428489832"/>
+        <c:axId val="405850712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +1966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467242536"/>
+        <c:crossAx val="405853768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +1974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467242536"/>
+        <c:axId val="405853768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -1958,13 +1986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428489832"/>
+        <c:crossAx val="405850712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2009,6 +2038,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2315,11 +2345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463696200"/>
-        <c:axId val="515619784"/>
+        <c:axId val="405894472"/>
+        <c:axId val="405897528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463696200"/>
+        <c:axId val="405894472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515619784"/>
+        <c:crossAx val="405897528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,7 +2366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515619784"/>
+        <c:axId val="405897528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500.0"/>
@@ -2348,13 +2378,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463696200"/>
+        <c:crossAx val="405894472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2706,11 +2737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468132120"/>
-        <c:axId val="425787464"/>
+        <c:axId val="405938088"/>
+        <c:axId val="405941144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468132120"/>
+        <c:axId val="405938088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425787464"/>
+        <c:crossAx val="405941144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425787464"/>
+        <c:axId val="405941144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2739,7 +2770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468132120"/>
+        <c:crossAx val="405938088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3103,11 +3134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479089832"/>
-        <c:axId val="433613624"/>
+        <c:axId val="405982392"/>
+        <c:axId val="405985448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="479089832"/>
+        <c:axId val="405982392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433613624"/>
+        <c:crossAx val="405985448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3124,7 +3155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433613624"/>
+        <c:axId val="405985448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3137,7 +3168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479089832"/>
+        <c:crossAx val="405982392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,11 +3527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492171448"/>
-        <c:axId val="468100584"/>
+        <c:axId val="406026184"/>
+        <c:axId val="406029240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="492171448"/>
+        <c:axId val="406026184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468100584"/>
+        <c:crossAx val="406029240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3517,7 +3548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468100584"/>
+        <c:axId val="406029240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -3530,7 +3561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492171448"/>
+        <c:crossAx val="406026184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,11 +3862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421747416"/>
-        <c:axId val="491872760"/>
+        <c:axId val="406066408"/>
+        <c:axId val="406069464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="421747416"/>
+        <c:axId val="406066408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +3875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491872760"/>
+        <c:crossAx val="406069464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3852,7 +3883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491872760"/>
+        <c:axId val="406069464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3864,7 +3895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421747416"/>
+        <c:crossAx val="406066408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,11 +4196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433585944"/>
-        <c:axId val="468328136"/>
+        <c:axId val="406106680"/>
+        <c:axId val="406109736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433585944"/>
+        <c:axId val="406106680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,7 +4209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468328136"/>
+        <c:crossAx val="406109736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4186,7 +4217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468328136"/>
+        <c:axId val="406109736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4198,7 +4229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433585944"/>
+        <c:crossAx val="406106680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4853,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
